--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务成本.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务成本.xlsx
@@ -2252,7 +2252,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.0199999999999999</v>
       </c>
       <c r="O4" t="n">
         <v>0.86</v>
@@ -2261,7 +2261,7 @@
         <v>36.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.2199999999998</v>
+        <v>11.86999999999961</v>
       </c>
       <c r="R4" t="n">
         <v>1460.99</v>
@@ -2270,7 +2270,7 @@
         <v>9.69</v>
       </c>
       <c r="T4" t="n">
-        <v>81.72999999999996</v>
+        <v>63.72999999999985</v>
       </c>
       <c r="U4" t="n">
         <v>330.82</v>
@@ -2288,7 +2288,7 @@
         <v>13.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.019999999999982</v>
+        <v>0.699999999999988</v>
       </c>
       <c r="AA4" t="n">
         <v>143.22</v>
@@ -2297,7 +2297,7 @@
         <v>7.77</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.11000000000008</v>
+        <v>1.950000000000083</v>
       </c>
       <c r="AD4" t="n">
         <v>485.17</v>
@@ -2315,7 +2315,7 @@
         <v>19.16</v>
       </c>
       <c r="AI4" t="n">
-        <v>331.8299999999981</v>
+        <v>82.10999999999871</v>
       </c>
       <c r="AJ4" t="n">
         <v>21874.5</v>
@@ -2333,7 +2333,7 @@
         <v>11.93</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.0200000000001</v>
+        <v>8.860000000000463</v>
       </c>
       <c r="AP4" t="n">
         <v>737.25</v>
@@ -2369,7 +2369,7 @@
         <v>16.64</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.130000000000003</v>
+        <v>0.6900000000000051</v>
       </c>
       <c r="BB4" t="n">
         <v>160.83</v>
@@ -2378,7 +2378,7 @@
         <v>13.16</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.529999999999998</v>
+        <v>3.450000000000003</v>
       </c>
       <c r="BE4" t="n">
         <v>22.77</v>
@@ -2423,7 +2423,7 @@
         <v>12.7</v>
       </c>
       <c r="BS4" t="n">
-        <v>36.24000000000018</v>
+        <v>34.48000000000042</v>
       </c>
       <c r="BT4" t="n">
         <v>1863.86</v>
@@ -2450,7 +2450,7 @@
         <v>15.31</v>
       </c>
       <c r="CB4" t="n">
-        <v>10.18000000000004</v>
+        <v>1.060000000000093</v>
       </c>
       <c r="CC4" t="n">
         <v>328</v>
@@ -2477,7 +2477,7 @@
         <v>2.78</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.599999999999739</v>
+        <v>1.979999999999678</v>
       </c>
       <c r="CL4" t="n">
         <v>1309.02</v>
@@ -2504,7 +2504,7 @@
         <v>18.45</v>
       </c>
       <c r="CT4" t="n">
-        <v>23.59</v>
+        <v>11.28</v>
       </c>
       <c r="CU4" t="n">
         <v>596.8</v>
@@ -2513,7 +2513,7 @@
         <v>15.38</v>
       </c>
       <c r="CW4" t="n">
-        <v>210.21</v>
+        <v>108.25</v>
       </c>
       <c r="CX4" t="n">
         <v>803.83</v>
@@ -2558,7 +2558,7 @@
         <v>11.03</v>
       </c>
       <c r="DL4" t="n">
-        <v>23.40999999999997</v>
+        <v>1.42999999999995</v>
       </c>
       <c r="DM4" t="n">
         <v>1428.07</v>
@@ -2721,7 +2721,7 @@
         <v>23.92</v>
       </c>
       <c r="H5" t="n">
-        <v>9.069999999999972</v>
+        <v>3.989999999999875</v>
       </c>
       <c r="I5" t="n">
         <v>262.32</v>
@@ -2730,7 +2730,7 @@
         <v>20.07</v>
       </c>
       <c r="K5" t="n">
-        <v>61.07000000000005</v>
+        <v>41.91000000000009</v>
       </c>
       <c r="L5" t="n">
         <v>299.24</v>
@@ -2739,7 +2739,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.16</v>
+        <v>2.012279232133096e-16</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>12.01</v>
       </c>
       <c r="W5" t="n">
-        <v>87.97999999999996</v>
+        <v>67.57999999999987</v>
       </c>
       <c r="X5" t="n">
         <v>456.45</v>
@@ -2775,7 +2775,7 @@
         <v>12.24</v>
       </c>
       <c r="Z5" t="n">
-        <v>35.45000000000002</v>
+        <v>29.17000000000008</v>
       </c>
       <c r="AA5" t="n">
         <v>183.13</v>
@@ -2784,7 +2784,7 @@
         <v>6.06</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.0999999999999</v>
+        <v>87.97999999999954</v>
       </c>
       <c r="AD5" t="n">
         <v>632.78</v>
@@ -2802,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>257.5600000000013</v>
+        <v>8.970000000003012</v>
       </c>
       <c r="AJ5" t="n">
         <v>28255.3</v>
@@ -2829,7 +2829,7 @@
         <v>19.07</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.229999999999876</v>
+        <v>2.80999999999986</v>
       </c>
       <c r="AS5" t="n">
         <v>750.35</v>
@@ -2838,7 +2838,7 @@
         <v>14.06</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.280000000000001</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="AV5" t="n">
         <v>113.48</v>
@@ -2847,7 +2847,7 @@
         <v>23.84</v>
       </c>
       <c r="AX5" t="n">
-        <v>12.66000000000003</v>
+        <v>6.260000000000057</v>
       </c>
       <c r="AY5" t="n">
         <v>746.3200000000001</v>
@@ -2856,7 +2856,7 @@
         <v>16.36</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.629999999999988</v>
+        <v>0.2199999999999838</v>
       </c>
       <c r="BB5" t="n">
         <v>212.73</v>
@@ -2874,7 +2874,7 @@
         <v>4.6</v>
       </c>
       <c r="BG5" t="n">
-        <v>52.31000000000003</v>
+        <v>42.11000000000026</v>
       </c>
       <c r="BH5" t="n">
         <v>253.13</v>
@@ -2901,7 +2901,7 @@
         <v>24.03</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.46999999999997</v>
+        <v>2.750000000000057</v>
       </c>
       <c r="BQ5" t="n">
         <v>383.71</v>
@@ -2928,7 +2928,7 @@
         <v>28.91</v>
       </c>
       <c r="BY5" t="n">
-        <v>28.63</v>
+        <v>7.49000000000013</v>
       </c>
       <c r="BZ5" t="n">
         <v>1476.17</v>
@@ -2937,7 +2937,7 @@
         <v>15.01</v>
       </c>
       <c r="CB5" t="n">
-        <v>4.54000000000002</v>
+        <v>1.359999999999741</v>
       </c>
       <c r="CC5" t="n">
         <v>427.25</v>
@@ -2955,7 +2955,7 @@
         <v>15.76</v>
       </c>
       <c r="CH5" t="n">
-        <v>28.55</v>
+        <v>11.78999999999997</v>
       </c>
       <c r="CI5" t="n">
         <v>500.21</v>
@@ -2964,7 +2964,7 @@
         <v>0.99</v>
       </c>
       <c r="CK5" t="n">
-        <v>16.85000000000036</v>
+        <v>6.310000000001582</v>
       </c>
       <c r="CL5" t="n">
         <v>1694.87</v>
@@ -2982,7 +2982,7 @@
         <v>3.42</v>
       </c>
       <c r="CQ5" t="n">
-        <v>106.6</v>
+        <v>63.35999999999999</v>
       </c>
       <c r="CR5" t="n">
         <v>541.8099999999999</v>
@@ -2991,7 +2991,7 @@
         <v>16.79</v>
       </c>
       <c r="CT5" t="n">
-        <v>172.39</v>
+        <v>114.96</v>
       </c>
       <c r="CU5" t="n">
         <v>776.42</v>
@@ -3009,7 +3009,7 @@
         <v>13.41</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5.059999999999988</v>
+        <v>1.43999999999999</v>
       </c>
       <c r="DA5" t="n">
         <v>90.34999999999999</v>
@@ -3027,7 +3027,7 @@
         <v>13.14</v>
       </c>
       <c r="DF5" t="n">
-        <v>26.12000000000018</v>
+        <v>11.76000000000028</v>
       </c>
       <c r="DG5" t="n">
         <v>1235.93</v>
@@ -3045,7 +3045,7 @@
         <v>10.6</v>
       </c>
       <c r="DL5" t="n">
-        <v>359.98</v>
+        <v>332.2800000000004</v>
       </c>
       <c r="DM5" t="n">
         <v>1834.06</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.9399999999999</v>
+        <v>107.1799999999999</v>
       </c>
       <c r="C6" t="n">
         <v>851.9299999999999</v>
@@ -3199,7 +3199,7 @@
         <v>14.07</v>
       </c>
       <c r="E6" t="n">
-        <v>332.8200000000002</v>
+        <v>203.1799999999998</v>
       </c>
       <c r="F6" t="n">
         <v>2262.75</v>
@@ -3208,7 +3208,7 @@
         <v>21.26</v>
       </c>
       <c r="H6" t="n">
-        <v>41.07000000000005</v>
+        <v>12.41000000000031</v>
       </c>
       <c r="I6" t="n">
         <v>322.71</v>
@@ -3226,7 +3226,7 @@
         <v>11.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
@@ -3235,7 +3235,7 @@
         <v>25.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>361.6999999999998</v>
+        <v>335.0199999999986</v>
       </c>
       <c r="R6" t="n">
         <v>2320.03</v>
@@ -3244,7 +3244,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>84.59000000000003</v>
+        <v>70.90999999999974</v>
       </c>
       <c r="U6" t="n">
         <v>510.6</v>
@@ -3253,7 +3253,7 @@
         <v>10.07</v>
       </c>
       <c r="W6" t="n">
-        <v>84.41999999999996</v>
+        <v>1.54000000000002</v>
       </c>
       <c r="X6" t="n">
         <v>557.45</v>
@@ -3280,7 +3280,7 @@
         <v>14.66</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.02000000000001734</v>
       </c>
       <c r="AG6" t="n">
         <v>149.89</v>
@@ -3289,7 +3289,7 @@
         <v>21.83</v>
       </c>
       <c r="AI6" t="n">
-        <v>5570.380000000005</v>
+        <v>5037.319999999996</v>
       </c>
       <c r="AJ6" t="n">
         <v>34866.09</v>
@@ -3298,7 +3298,7 @@
         <v>14.94</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.730000000000025</v>
+        <v>1.010000000000169</v>
       </c>
       <c r="AM6" t="n">
         <v>227.14</v>
@@ -3307,7 +3307,7 @@
         <v>8.51</v>
       </c>
       <c r="AO6" t="n">
-        <v>185.97</v>
+        <v>158.01</v>
       </c>
       <c r="AP6" t="n">
         <v>1203.34</v>
@@ -3316,7 +3316,7 @@
         <v>18.79</v>
       </c>
       <c r="AR6" t="n">
-        <v>147.23</v>
+        <v>132.5700000000006</v>
       </c>
       <c r="AS6" t="n">
         <v>937.47</v>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>23.89000000000001</v>
+        <v>14.48000000000001</v>
       </c>
       <c r="AV6" t="n">
         <v>139.37</v>
@@ -3334,7 +3334,7 @@
         <v>18.17</v>
       </c>
       <c r="AX6" t="n">
-        <v>139.33</v>
+        <v>98.28999999999985</v>
       </c>
       <c r="AY6" t="n">
         <v>917.8</v>
@@ -3343,7 +3343,7 @@
         <v>15.85</v>
       </c>
       <c r="BA6" t="n">
-        <v>45.75999999999999</v>
+        <v>40.06000000000004</v>
       </c>
       <c r="BB6" t="n">
         <v>262.62</v>
@@ -3352,7 +3352,7 @@
         <v>11.75</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.579999999999998</v>
+        <v>0.179999999999978</v>
       </c>
       <c r="BE6" t="n">
         <v>32.71</v>
@@ -3361,7 +3361,7 @@
         <v>-1.7</v>
       </c>
       <c r="BG6" t="n">
-        <v>51.08999999999997</v>
+        <v>1.329999999999885</v>
       </c>
       <c r="BH6" t="n">
         <v>311.58</v>
@@ -3370,7 +3370,7 @@
         <v>10.79</v>
       </c>
       <c r="BJ6" t="n">
-        <v>51.32999999999998</v>
+        <v>50.8099999999998</v>
       </c>
       <c r="BK6" t="n">
         <v>338.31</v>
@@ -3388,7 +3388,7 @@
         <v>23.46</v>
       </c>
       <c r="BP6" t="n">
-        <v>72.24000000000001</v>
+        <v>44.44</v>
       </c>
       <c r="BQ6" t="n">
         <v>465.9</v>
@@ -3397,7 +3397,7 @@
         <v>11.57</v>
       </c>
       <c r="BS6" t="n">
-        <v>20.12000000000029</v>
+        <v>7.200000000001129</v>
       </c>
       <c r="BT6" t="n">
         <v>2880.4</v>
@@ -3406,7 +3406,7 @@
         <v>12.41</v>
       </c>
       <c r="BV6" t="n">
-        <v>32.49999999999972</v>
+        <v>7.819999999999661</v>
       </c>
       <c r="BW6" t="n">
         <v>3245.08</v>
@@ -3415,7 +3415,7 @@
         <v>27.77</v>
       </c>
       <c r="BY6" t="n">
-        <v>301.5600000000002</v>
+        <v>250.4599999999999</v>
       </c>
       <c r="BZ6" t="n">
         <v>1900.97</v>
@@ -3424,7 +3424,7 @@
         <v>16.78</v>
       </c>
       <c r="CB6" t="n">
-        <v>8.529999999999973</v>
+        <v>0.510000000000026</v>
       </c>
       <c r="CC6" t="n">
         <v>539.9</v>
@@ -3442,7 +3442,7 @@
         <v>15.09</v>
       </c>
       <c r="CH6" t="n">
-        <v>101.34</v>
+        <v>37.4200000000001</v>
       </c>
       <c r="CI6" t="n">
         <v>637.8099999999999</v>
@@ -3451,7 +3451,7 @@
         <v>-0.25</v>
       </c>
       <c r="CK6" t="n">
-        <v>331.48</v>
+        <v>283.8199999999968</v>
       </c>
       <c r="CL6" t="n">
         <v>2087.06</v>
@@ -3460,7 +3460,7 @@
         <v>13.08</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.59999999999998</v>
+        <v>0.3599999999999426</v>
       </c>
       <c r="CO6" t="n">
         <v>113.93</v>
@@ -3469,7 +3469,7 @@
         <v>5.58</v>
       </c>
       <c r="CQ6" t="n">
-        <v>106.3100000000001</v>
+        <v>10.52000000000011</v>
       </c>
       <c r="CR6" t="n">
         <v>672.39</v>
@@ -3487,7 +3487,7 @@
         <v>13.25</v>
       </c>
       <c r="CW6" t="n">
-        <v>211.4200000000001</v>
+        <v>85.0600000000001</v>
       </c>
       <c r="CX6" t="n">
         <v>1313.95</v>
@@ -3496,7 +3496,7 @@
         <v>12.61</v>
       </c>
       <c r="CZ6" t="n">
-        <v>20.35000000000001</v>
+        <v>9.16000000000005</v>
       </c>
       <c r="DA6" t="n">
         <v>115.19</v>
@@ -3505,7 +3505,7 @@
         <v>10.3</v>
       </c>
       <c r="DC6" t="n">
-        <v>78.81</v>
+        <v>53.81</v>
       </c>
       <c r="DD6" t="n">
         <v>539.41</v>
@@ -3514,7 +3514,7 @@
         <v>14.03</v>
       </c>
       <c r="DF6" t="n">
-        <v>231.8899999999999</v>
+        <v>170.4899999999988</v>
       </c>
       <c r="DG6" t="n">
         <v>1534.19</v>
@@ -3523,7 +3523,7 @@
         <v>12.56</v>
       </c>
       <c r="DI6" t="n">
-        <v>90.85000000000002</v>
+        <v>59.73000000000002</v>
       </c>
       <c r="DJ6" t="n">
         <v>581.29</v>
@@ -3532,7 +3532,7 @@
         <v>10.15</v>
       </c>
       <c r="DL6" t="n">
-        <v>346.8699999999999</v>
+        <v>10.29999999999978</v>
       </c>
       <c r="DM6" t="n">
         <v>2235.66</v>
@@ -3541,7 +3541,7 @@
         <v>16.44</v>
       </c>
       <c r="DO6" t="n">
-        <v>9.369999999999997</v>
+        <v>8.329999999999998</v>
       </c>
       <c r="DP6" t="n">
         <v>58.52</v>
@@ -3704,7 +3704,7 @@
         <v>17.73</v>
       </c>
       <c r="K7" t="n">
-        <v>60.55999999999995</v>
+        <v>41.36000000000013</v>
       </c>
       <c r="L7" t="n">
         <v>437.72</v>
@@ -3713,7 +3713,7 @@
         <v>9.57</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.05000000000000013</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -3731,7 +3731,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>82.90999999999997</v>
+        <v>1.740000000000009</v>
       </c>
       <c r="U7" t="n">
         <v>592.3200000000001</v>
@@ -3740,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>77.47000000000003</v>
+        <v>74.38999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>653.13</v>
@@ -3749,7 +3749,7 @@
         <v>12.79</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.759999999999991</v>
+        <v>1.010000000000019</v>
       </c>
       <c r="AA7" t="n">
         <v>266.09</v>
@@ -3758,7 +3758,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.03</v>
+        <v>70.14999999999917</v>
       </c>
       <c r="AD7" t="n">
         <v>915.5599999999999</v>
@@ -3767,7 +3767,7 @@
         <v>13.42</v>
       </c>
       <c r="AF7" t="n">
-        <v>21.88</v>
+        <v>21.49999999999995</v>
       </c>
       <c r="AG7" t="n">
         <v>175.34</v>
@@ -3785,7 +3785,7 @@
         <v>14.28</v>
       </c>
       <c r="AL7" t="n">
-        <v>43.29000000000002</v>
+        <v>29.94999999999971</v>
       </c>
       <c r="AM7" t="n">
         <v>272.35</v>
@@ -3839,7 +3839,7 @@
         <v>10.14</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.579999999999998</v>
+        <v>0.100000000000005</v>
       </c>
       <c r="BE7" t="n">
         <v>36.26</v>
@@ -3848,7 +3848,7 @@
         <v>-4.23</v>
       </c>
       <c r="BG7" t="n">
-        <v>48.65000000000003</v>
+        <v>45.99000000000026</v>
       </c>
       <c r="BH7" t="n">
         <v>360.64</v>
@@ -3866,7 +3866,7 @@
         <v>7.21</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9300000000000122</v>
+        <v>0.7700000000000582</v>
       </c>
       <c r="BN7" t="n">
         <v>131.77</v>
@@ -3884,7 +3884,7 @@
         <v>14.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>471.3599999999997</v>
+        <v>410.2599999999973</v>
       </c>
       <c r="BT7" t="n">
         <v>3459.4</v>
@@ -3893,7 +3893,7 @@
         <v>13.66</v>
       </c>
       <c r="BV7" t="n">
-        <v>50.7800000000002</v>
+        <v>2.640000000001159</v>
       </c>
       <c r="BW7" t="n">
         <v>3886.99</v>
@@ -3911,7 +3911,7 @@
         <v>16.51</v>
       </c>
       <c r="CB7" t="n">
-        <v>94.03999999999996</v>
+        <v>77.02000000000007</v>
       </c>
       <c r="CC7" t="n">
         <v>635.23</v>
@@ -3920,7 +3920,7 @@
         <v>11.91</v>
       </c>
       <c r="CE7" t="n">
-        <v>20.42999999999984</v>
+        <v>2.329999999999931</v>
       </c>
       <c r="CF7" t="n">
         <v>2418.57</v>
@@ -3947,7 +3947,7 @@
         <v>11.74</v>
       </c>
       <c r="CN7" t="n">
-        <v>18.55000000000001</v>
+        <v>15.25000000000019</v>
       </c>
       <c r="CO7" t="n">
         <v>133.76</v>
@@ -3956,7 +3956,7 @@
         <v>3.99</v>
       </c>
       <c r="CQ7" t="n">
-        <v>102.15</v>
+        <v>81.10999999999979</v>
       </c>
       <c r="CR7" t="n">
         <v>783.1</v>
@@ -3965,7 +3965,7 @@
         <v>15.7</v>
       </c>
       <c r="CT7" t="n">
-        <v>153.1099999999999</v>
+        <v>109.1099999999999</v>
       </c>
       <c r="CU7" t="n">
         <v>1166.41</v>
@@ -3983,7 +3983,7 @@
         <v>12.55</v>
       </c>
       <c r="CZ7" t="n">
-        <v>16.04000000000001</v>
+        <v>0.7499999999999893</v>
       </c>
       <c r="DA7" t="n">
         <v>140.95</v>
@@ -3992,7 +3992,7 @@
         <v>12.95</v>
       </c>
       <c r="DC7" t="n">
-        <v>75.15999999999997</v>
+        <v>2.599999999999966</v>
       </c>
       <c r="DD7" t="n">
         <v>628.79</v>
@@ -4019,7 +4019,7 @@
         <v>10.66</v>
       </c>
       <c r="DL7" t="n">
-        <v>344.1100000000001</v>
+        <v>323.5100000000005</v>
       </c>
       <c r="DM7" t="n">
         <v>2641.87</v>
@@ -4028,7 +4028,7 @@
         <v>16.54</v>
       </c>
       <c r="DO7" t="n">
-        <v>9.100000000000001</v>
+        <v>0.2500000000000036</v>
       </c>
       <c r="DP7" t="n">
         <v>68.36</v>
@@ -4173,7 +4173,7 @@
         <v>12.97</v>
       </c>
       <c r="E8" t="n">
-        <v>48.15999999999991</v>
+        <v>3.120000000000168</v>
       </c>
       <c r="F8" t="n">
         <v>3002.64</v>
@@ -4182,7 +4182,7 @@
         <v>17.55</v>
       </c>
       <c r="H8" t="n">
-        <v>15.04000000000003</v>
+        <v>5.030000000000099</v>
       </c>
       <c r="I8" t="n">
         <v>426.74</v>
@@ -4200,7 +4200,7 @@
         <v>8.83</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0699999999999999</v>
+        <v>0.009999999999999842</v>
       </c>
       <c r="O8" t="n">
         <v>1.45</v>
@@ -4209,7 +4209,7 @@
         <v>5.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>34.61999999999995</v>
+        <v>0.9599999999992015</v>
       </c>
       <c r="R8" t="n">
         <v>3096.13</v>
@@ -4218,7 +4218,7 @@
         <v>7.56</v>
       </c>
       <c r="T8" t="n">
-        <v>3.220000000000027</v>
+        <v>1.480000000000018</v>
       </c>
       <c r="U8" t="n">
         <v>681.8099999999999</v>
@@ -4236,7 +4236,7 @@
         <v>15.07</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.940000000000047</v>
+        <v>0.9300000000000279</v>
       </c>
       <c r="AA8" t="n">
         <v>308.66</v>
@@ -4263,7 +4263,7 @@
         <v>18.06</v>
       </c>
       <c r="AI8" t="n">
-        <v>372.3600000000079</v>
+        <v>89.68000000002951</v>
       </c>
       <c r="AJ8" t="n">
         <v>47239.16</v>
@@ -4281,7 +4281,7 @@
         <v>6.21</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.619999999999919</v>
+        <v>0.03999999999993498</v>
       </c>
       <c r="AP8" t="n">
         <v>1618.11</v>
@@ -4290,7 +4290,7 @@
         <v>16.69</v>
       </c>
       <c r="AR8" t="n">
-        <v>155.1800000000001</v>
+        <v>112.8999999999997</v>
       </c>
       <c r="AS8" t="n">
         <v>1246.54</v>
@@ -4299,7 +4299,7 @@
         <v>11.28</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.830000000000009</v>
+        <v>0.2100000000000293</v>
       </c>
       <c r="AV8" t="n">
         <v>189.88</v>
@@ -4308,7 +4308,7 @@
         <v>14.16</v>
       </c>
       <c r="AX8" t="n">
-        <v>155.5</v>
+        <v>85.6200000000008</v>
       </c>
       <c r="AY8" t="n">
         <v>1239.31</v>
@@ -4317,7 +4317,7 @@
         <v>13.87</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.279999999999916</v>
+        <v>0.569999999999766</v>
       </c>
       <c r="BB8" t="n">
         <v>355.73</v>
@@ -4326,7 +4326,7 @@
         <v>8.75</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.570000000000008</v>
+        <v>2.369999999999998</v>
       </c>
       <c r="BE8" t="n">
         <v>40.13</v>
@@ -4353,7 +4353,7 @@
         <v>7.28</v>
       </c>
       <c r="BM8" t="n">
-        <v>13.91</v>
+        <v>10.42999999999988</v>
       </c>
       <c r="BN8" t="n">
         <v>148.66</v>
@@ -4362,7 +4362,7 @@
         <v>18.36</v>
       </c>
       <c r="BP8" t="n">
-        <v>61.83000000000004</v>
+        <v>51.59000000000004</v>
       </c>
       <c r="BQ8" t="n">
         <v>656.24</v>
@@ -4380,7 +4380,7 @@
         <v>12.39</v>
       </c>
       <c r="BV8" t="n">
-        <v>519.6999999999998</v>
+        <v>421.8999999999978</v>
       </c>
       <c r="BW8" t="n">
         <v>4480.14</v>
@@ -4407,7 +4407,7 @@
         <v>12.15</v>
       </c>
       <c r="CE8" t="n">
-        <v>6.990000000000293</v>
+        <v>5.022648963404208e-13</v>
       </c>
       <c r="CF8" t="n">
         <v>2747</v>
@@ -4461,7 +4461,7 @@
         <v>10.65</v>
       </c>
       <c r="CW8" t="n">
-        <v>17.18000000000009</v>
+        <v>7.000000000000279</v>
       </c>
       <c r="CX8" t="n">
         <v>1791.53</v>
@@ -4470,7 +4470,7 @@
         <v>11.98</v>
       </c>
       <c r="CZ8" t="n">
-        <v>4.09999999999998</v>
+        <v>2.600000000000002</v>
       </c>
       <c r="DA8" t="n">
         <v>163.87</v>
@@ -4479,7 +4479,7 @@
         <v>16.36</v>
       </c>
       <c r="DC8" t="n">
-        <v>26.40000000000013</v>
+        <v>21.20000000000019</v>
       </c>
       <c r="DD8" t="n">
         <v>721.83</v>
@@ -4488,7 +4488,7 @@
         <v>15.12</v>
       </c>
       <c r="DF8" t="n">
-        <v>27.67000000000007</v>
+        <v>0.3699999999997452</v>
       </c>
       <c r="DG8" t="n">
         <v>2062.65</v>
@@ -4497,7 +4497,7 @@
         <v>12.35</v>
       </c>
       <c r="DI8" t="n">
-        <v>3.330000000000041</v>
+        <v>0.8700000000001178</v>
       </c>
       <c r="DJ8" t="n">
         <v>776.84</v>
@@ -4515,7 +4515,7 @@
         <v>20.29</v>
       </c>
       <c r="DO8" t="n">
-        <v>1.869999999999999</v>
+        <v>1.619999999999995</v>
       </c>
       <c r="DP8" t="n">
         <v>79.63</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.9599999999998</v>
+        <v>104.7200000000002</v>
       </c>
       <c r="C9" t="n">
         <v>1290.59</v>
@@ -4660,7 +4660,7 @@
         <v>13.62</v>
       </c>
       <c r="E9" t="n">
-        <v>367.2599999999998</v>
+        <v>287.2199999999995</v>
       </c>
       <c r="F9" t="n">
         <v>3446.65</v>
@@ -4669,7 +4669,7 @@
         <v>16.53</v>
       </c>
       <c r="H9" t="n">
-        <v>5.139999999999986</v>
+        <v>0.1099999999998875</v>
       </c>
       <c r="I9" t="n">
         <v>485.64</v>
@@ -4678,7 +4678,7 @@
         <v>11.29</v>
       </c>
       <c r="K9" t="n">
-        <v>64.56000000000006</v>
+        <v>41.23999999999992</v>
       </c>
       <c r="L9" t="n">
         <v>573.6900000000001</v>
@@ -4687,7 +4687,7 @@
         <v>8.98</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.0500000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -4696,7 +4696,7 @@
         <v>4.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>387.5700000000002</v>
+        <v>316.4100000000019</v>
       </c>
       <c r="R9" t="n">
         <v>3505.33</v>
@@ -4705,7 +4705,7 @@
         <v>6.67</v>
       </c>
       <c r="T9" t="n">
-        <v>5.470000000000027</v>
+        <v>0.769999999999982</v>
       </c>
       <c r="U9" t="n">
         <v>772.92</v>
@@ -4723,7 +4723,7 @@
         <v>15.24</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.849999999999973</v>
+        <v>0.909999999999926</v>
       </c>
       <c r="AA9" t="n">
         <v>354.01</v>
@@ -4732,7 +4732,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>133.3199999999999</v>
+        <v>110.9199999999995</v>
       </c>
       <c r="AD9" t="n">
         <v>1200.03</v>
@@ -4741,7 +4741,7 @@
         <v>12.27</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.599999999999991</v>
+        <v>0.03999999999998916</v>
       </c>
       <c r="AG9" t="n">
         <v>227.8</v>
@@ -4750,7 +4750,7 @@
         <v>18.36</v>
       </c>
       <c r="AI9" t="n">
-        <v>5951.660000000003</v>
+        <v>5168.919999999917</v>
       </c>
       <c r="AJ9" t="n">
         <v>53856.4</v>
@@ -4759,7 +4759,7 @@
         <v>12.91</v>
       </c>
       <c r="AL9" t="n">
-        <v>40.82999999999998</v>
+        <v>10.77000000000004</v>
       </c>
       <c r="AM9" t="n">
         <v>367.06</v>
@@ -4768,7 +4768,7 @@
         <v>2.61</v>
       </c>
       <c r="AO9" t="n">
-        <v>189.9200000000001</v>
+        <v>184.3900000000005</v>
       </c>
       <c r="AP9" t="n">
         <v>1826.62</v>
@@ -4786,7 +4786,7 @@
         <v>10.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>21.25999999999999</v>
+        <v>19.79999999999989</v>
       </c>
       <c r="AV9" t="n">
         <v>219.37</v>
@@ -4804,7 +4804,7 @@
         <v>14.35</v>
       </c>
       <c r="BA9" t="n">
-        <v>45.36000000000001</v>
+        <v>39.66000000000064</v>
       </c>
       <c r="BB9" t="n">
         <v>406.45</v>
@@ -4813,7 +4813,7 @@
         <v>8.18</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.389999999999993</v>
+        <v>1.819999999999985</v>
       </c>
       <c r="BE9" t="n">
         <v>42.84</v>
@@ -4822,7 +4822,7 @@
         <v>-9.98</v>
       </c>
       <c r="BG9" t="n">
-        <v>53.17000000000002</v>
+        <v>5.050000000000122</v>
       </c>
       <c r="BH9" t="n">
         <v>481.65</v>
@@ -4831,7 +4831,7 @@
         <v>6.17</v>
       </c>
       <c r="BJ9" t="n">
-        <v>55.19999999999999</v>
+        <v>45.88000000000003</v>
       </c>
       <c r="BK9" t="n">
         <v>519.3200000000001</v>
@@ -4858,7 +4858,7 @@
         <v>15.89</v>
       </c>
       <c r="BS9" t="n">
-        <v>464.6099999999997</v>
+        <v>241.3699999999981</v>
       </c>
       <c r="BT9" t="n">
         <v>4542.82</v>
@@ -4876,7 +4876,7 @@
         <v>24.62</v>
       </c>
       <c r="BY9" t="n">
-        <v>297.75</v>
+        <v>295.3899999999985</v>
       </c>
       <c r="BZ9" t="n">
         <v>2957.53</v>
@@ -4885,7 +4885,7 @@
         <v>16</v>
       </c>
       <c r="CB9" t="n">
-        <v>76.27999999999997</v>
+        <v>46.31999999999942</v>
       </c>
       <c r="CC9" t="n">
         <v>849.49</v>
@@ -4894,7 +4894,7 @@
         <v>11.31</v>
       </c>
       <c r="CE9" t="n">
-        <v>18.70999999999998</v>
+        <v>0.06999999999903217</v>
       </c>
       <c r="CF9" t="n">
         <v>3094.72</v>
@@ -4903,7 +4903,7 @@
         <v>8.57</v>
       </c>
       <c r="CH9" t="n">
-        <v>105.0500000000001</v>
+        <v>90.57000000000009</v>
       </c>
       <c r="CI9" t="n">
         <v>982.9299999999999</v>
@@ -4921,7 +4921,7 @@
         <v>10.41</v>
       </c>
       <c r="CN9" t="n">
-        <v>18.19999999999999</v>
+        <v>13.12000000000007</v>
       </c>
       <c r="CO9" t="n">
         <v>173.87</v>
@@ -4939,7 +4939,7 @@
         <v>14.76</v>
       </c>
       <c r="CT9" t="n">
-        <v>169.1099999999999</v>
+        <v>23.9899999999991</v>
       </c>
       <c r="CU9" t="n">
         <v>1516.52</v>
@@ -4948,7 +4948,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="CW9" t="n">
-        <v>237.1599999999999</v>
+        <v>198.9799999999989</v>
       </c>
       <c r="CX9" t="n">
         <v>2057.91</v>
@@ -4966,7 +4966,7 @@
         <v>15.14</v>
       </c>
       <c r="DC9" t="n">
-        <v>92.32999999999993</v>
+        <v>13.12999999999953</v>
       </c>
       <c r="DD9" t="n">
         <v>832.71</v>
@@ -4975,7 +4975,7 @@
         <v>14.29</v>
       </c>
       <c r="DF9" t="n">
-        <v>255.6599999999999</v>
+        <v>199.5800000000002</v>
       </c>
       <c r="DG9" t="n">
         <v>2362.8</v>
@@ -4984,7 +4984,7 @@
         <v>12.27</v>
       </c>
       <c r="DI9" t="n">
-        <v>75.09000000000003</v>
+        <v>69.14999999999964</v>
       </c>
       <c r="DJ9" t="n">
         <v>883.05</v>
@@ -4993,7 +4993,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="DL9" t="n">
-        <v>375.5</v>
+        <v>170.6599999999996</v>
       </c>
       <c r="DM9" t="n">
         <v>3483.4</v>
@@ -5002,7 +5002,7 @@
         <v>15.87</v>
       </c>
       <c r="DO9" t="n">
-        <v>9.969999999999999</v>
+        <v>2.490000000000002</v>
       </c>
       <c r="DP9" t="n">
         <v>90.77</v>
@@ -5156,7 +5156,7 @@
         <v>15.92</v>
       </c>
       <c r="H10" t="n">
-        <v>65.23000000000002</v>
+        <v>54.73000000000028</v>
       </c>
       <c r="I10" t="n">
         <v>558.59</v>
@@ -5165,7 +5165,7 @@
         <v>10.04</v>
       </c>
       <c r="K10" t="n">
-        <v>63.79999999999995</v>
+        <v>5.069999999999915</v>
       </c>
       <c r="L10" t="n">
         <v>644.88</v>
@@ -5174,7 +5174,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.0399999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.81</v>
@@ -5183,7 +5183,7 @@
         <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>374.7399999999998</v>
+        <v>21.78999999999951</v>
       </c>
       <c r="R10" t="n">
         <v>3919.42</v>
@@ -5192,7 +5192,7 @@
         <v>6.69</v>
       </c>
       <c r="T10" t="n">
-        <v>90.39999999999998</v>
+        <v>78.17999999999995</v>
       </c>
       <c r="U10" t="n">
         <v>856.61</v>
@@ -5201,7 +5201,7 @@
         <v>5.87</v>
       </c>
       <c r="W10" t="n">
-        <v>5.430000000000064</v>
+        <v>2.170000000000073</v>
       </c>
       <c r="X10" t="n">
         <v>960.49</v>
@@ -5210,7 +5210,7 @@
         <v>15.96</v>
       </c>
       <c r="Z10" t="n">
-        <v>42.38999999999999</v>
+        <v>36.81000000000024</v>
       </c>
       <c r="AA10" t="n">
         <v>400.6</v>
@@ -5228,7 +5228,7 @@
         <v>12.01</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.240000000000009</v>
+        <v>0.5600000000000396</v>
       </c>
       <c r="AG10" t="n">
         <v>258.06</v>
@@ -5291,7 +5291,7 @@
         <v>14.27</v>
       </c>
       <c r="BA10" t="n">
-        <v>40.69999999999999</v>
+        <v>0.4699999999995867</v>
       </c>
       <c r="BB10" t="n">
         <v>458.2</v>
@@ -5327,7 +5327,7 @@
         <v>9.31</v>
       </c>
       <c r="BM10" t="n">
-        <v>7.729999999999992</v>
+        <v>4.169999999999956</v>
       </c>
       <c r="BN10" t="n">
         <v>184.36</v>
@@ -5336,7 +5336,7 @@
         <v>19.48</v>
       </c>
       <c r="BP10" t="n">
-        <v>15.33000000000015</v>
+        <v>0.2100000000002584</v>
       </c>
       <c r="BQ10" t="n">
         <v>821.55</v>
@@ -5381,7 +5381,7 @@
         <v>13.09</v>
       </c>
       <c r="CE10" t="n">
-        <v>371.0900000000001</v>
+        <v>335.8600000000019</v>
       </c>
       <c r="CF10" t="n">
         <v>3463.71</v>
@@ -5399,7 +5399,7 @@
         <v>-1.15</v>
       </c>
       <c r="CK10" t="n">
-        <v>21.02000000000049</v>
+        <v>6.300000000001139</v>
       </c>
       <c r="CL10" t="n">
         <v>3608.61</v>
@@ -5417,7 +5417,7 @@
         <v>5.05</v>
       </c>
       <c r="CQ10" t="n">
-        <v>111.1200000000001</v>
+        <v>89.1200000000001</v>
       </c>
       <c r="CR10" t="n">
         <v>1138.73</v>
@@ -5426,7 +5426,7 @@
         <v>13.67</v>
       </c>
       <c r="CT10" t="n">
-        <v>160.8100000000002</v>
+        <v>27.9800000000005</v>
       </c>
       <c r="CU10" t="n">
         <v>1716.26</v>
@@ -5453,7 +5453,7 @@
         <v>15.52</v>
       </c>
       <c r="DC10" t="n">
-        <v>41.87000000000006</v>
+        <v>2.340000000000401</v>
       </c>
       <c r="DD10" t="n">
         <v>937.85</v>
@@ -5480,7 +5480,7 @@
         <v>9.41</v>
       </c>
       <c r="DL10" t="n">
-        <v>365.2199999999998</v>
+        <v>40.92999999999989</v>
       </c>
       <c r="DM10" t="n">
         <v>3889.77</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.06</v>
+        <v>10.4999999999988</v>
       </c>
       <c r="C11" t="n">
         <v>1590.11</v>
@@ -5634,7 +5634,7 @@
         <v>12.46</v>
       </c>
       <c r="E11" t="n">
-        <v>163.3200000000002</v>
+        <v>48.48000000000025</v>
       </c>
       <c r="F11" t="n">
         <v>4344.75</v>
@@ -5652,7 +5652,7 @@
         <v>8.5</v>
       </c>
       <c r="K11" t="n">
-        <v>12.71000000000004</v>
+        <v>2.57000000000021</v>
       </c>
       <c r="L11" t="n">
         <v>721.38</v>
@@ -5661,7 +5661,7 @@
         <v>10.17</v>
       </c>
       <c r="N11" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="O11" t="n">
         <v>1.98</v>
@@ -5670,7 +5670,7 @@
         <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.6300000000006</v>
+        <v>275.0500000000016</v>
       </c>
       <c r="R11" t="n">
         <v>4315.49</v>
@@ -5679,7 +5679,7 @@
         <v>6.6</v>
       </c>
       <c r="T11" t="n">
-        <v>751.58</v>
+        <v>413.1400000000003</v>
       </c>
       <c r="U11" t="n">
         <v>946.4299999999999</v>
@@ -5688,7 +5688,7 @@
         <v>5.22</v>
       </c>
       <c r="W11" t="n">
-        <v>23.87999999999984</v>
+        <v>11.93999999999957</v>
       </c>
       <c r="X11" t="n">
         <v>1077.46</v>
@@ -5706,7 +5706,7 @@
         <v>7.23</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.4500000000001</v>
+        <v>6.809999999999777</v>
       </c>
       <c r="AD11" t="n">
         <v>1502.98</v>
@@ -5715,7 +5715,7 @@
         <v>12.38</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.650000000000013</v>
+        <v>0.369999999999977</v>
       </c>
       <c r="AG11" t="n">
         <v>295.16</v>
@@ -5724,7 +5724,7 @@
         <v>17.49</v>
       </c>
       <c r="AI11" t="n">
-        <v>1213.129999999998</v>
+        <v>109.930000000012</v>
       </c>
       <c r="AJ11" t="n">
         <v>67122.12</v>
@@ -5733,7 +5733,7 @@
         <v>12.09</v>
       </c>
       <c r="AL11" t="n">
-        <v>14.25999999999999</v>
+        <v>0.1299999999998622</v>
       </c>
       <c r="AM11" t="n">
         <v>467.5</v>
@@ -5742,7 +5742,7 @@
         <v>5.27</v>
       </c>
       <c r="AO11" t="n">
-        <v>62.39999999999978</v>
+        <v>5.43999999999974</v>
       </c>
       <c r="AP11" t="n">
         <v>2277.11</v>
@@ -5751,7 +5751,7 @@
         <v>15.46</v>
       </c>
       <c r="AR11" t="n">
-        <v>48.53999999999968</v>
+        <v>43.019999999998</v>
       </c>
       <c r="AS11" t="n">
         <v>1738.22</v>
@@ -5760,7 +5760,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.96999999999997</v>
+        <v>1.739999999999952</v>
       </c>
       <c r="AV11" t="n">
         <v>268.88</v>
@@ -5769,7 +5769,7 @@
         <v>11.37</v>
       </c>
       <c r="AX11" t="n">
-        <v>78.57000000000019</v>
+        <v>71.97000000000176</v>
       </c>
       <c r="AY11" t="n">
         <v>1796.93</v>
@@ -5787,7 +5787,7 @@
         <v>11.49</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.899999999999997</v>
+        <v>4.379999999999955</v>
       </c>
       <c r="BE11" t="n">
         <v>50.16</v>
@@ -5796,7 +5796,7 @@
         <v>-11.61</v>
       </c>
       <c r="BG11" t="n">
-        <v>49.42999999999995</v>
+        <v>46.63000000000005</v>
       </c>
       <c r="BH11" t="n">
         <v>598.48</v>
@@ -5805,7 +5805,7 @@
         <v>6.73</v>
       </c>
       <c r="BJ11" t="n">
-        <v>10.46999999999991</v>
+        <v>3.599999999999849</v>
       </c>
       <c r="BK11" t="n">
         <v>650.54</v>
@@ -5823,7 +5823,7 @@
         <v>15.01</v>
       </c>
       <c r="BP11" t="n">
-        <v>23.41999999999982</v>
+        <v>7.459999999998896</v>
       </c>
       <c r="BQ11" t="n">
         <v>922.6</v>
@@ -5832,7 +5832,7 @@
         <v>15.95</v>
       </c>
       <c r="BS11" t="n">
-        <v>516.29</v>
+        <v>109.529999999998</v>
       </c>
       <c r="BT11" t="n">
         <v>5660.07</v>
@@ -5841,7 +5841,7 @@
         <v>11.57</v>
       </c>
       <c r="BV11" t="n">
-        <v>37.41999999999916</v>
+        <v>17.95999999999821</v>
       </c>
       <c r="BW11" t="n">
         <v>6569.4</v>
@@ -5850,7 +5850,7 @@
         <v>21.28</v>
       </c>
       <c r="BY11" t="n">
-        <v>90.94999999999942</v>
+        <v>19.22999999999826</v>
       </c>
       <c r="BZ11" t="n">
         <v>3631.38</v>
@@ -5859,7 +5859,7 @@
         <v>14.8</v>
       </c>
       <c r="CB11" t="n">
-        <v>37.95000000000002</v>
+        <v>13.07</v>
       </c>
       <c r="CC11" t="n">
         <v>1075.18</v>
@@ -5877,7 +5877,7 @@
         <v>4.17</v>
       </c>
       <c r="CH11" t="n">
-        <v>77.33999999999989</v>
+        <v>0.8499999999998806</v>
       </c>
       <c r="CI11" t="n">
         <v>1189.35</v>
@@ -5886,7 +5886,7 @@
         <v>1.96</v>
       </c>
       <c r="CK11" t="n">
-        <v>83.79999999999967</v>
+        <v>43.87999999999576</v>
       </c>
       <c r="CL11" t="n">
         <v>4031.55</v>
@@ -5913,7 +5913,7 @@
         <v>13.94</v>
       </c>
       <c r="CT11" t="n">
-        <v>58.00999999999971</v>
+        <v>2.049999999998708</v>
       </c>
       <c r="CU11" t="n">
         <v>1906.36</v>
@@ -5922,7 +5922,7 @@
         <v>10.79</v>
       </c>
       <c r="CW11" t="n">
-        <v>79.55000000000021</v>
+        <v>61.74999999999946</v>
       </c>
       <c r="CX11" t="n">
         <v>2607.01</v>
@@ -5940,7 +5940,7 @@
         <v>14.04</v>
       </c>
       <c r="DC11" t="n">
-        <v>86.4899999999999</v>
+        <v>0.4099999999993651</v>
       </c>
       <c r="DD11" t="n">
         <v>1046.34</v>
@@ -5949,7 +5949,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="DF11" t="n">
-        <v>96.82999999999947</v>
+        <v>36.90999999999779</v>
       </c>
       <c r="DG11" t="n">
         <v>2966.92</v>
@@ -5958,7 +5958,7 @@
         <v>12.78</v>
       </c>
       <c r="DI11" t="n">
-        <v>27.24000000000011</v>
+        <v>1.590000000000245</v>
       </c>
       <c r="DJ11" t="n">
         <v>1051.17</v>
@@ -5976,7 +5976,7 @@
         <v>14.32</v>
       </c>
       <c r="DO11" t="n">
-        <v>2.179999999999989</v>
+        <v>0.339999999999987</v>
       </c>
       <c r="DP11" t="n">
         <v>116.84</v>
@@ -6139,7 +6139,7 @@
         <v>11.71</v>
       </c>
       <c r="K12" t="n">
-        <v>24.23</v>
+        <v>3.879999999999836</v>
       </c>
       <c r="L12" t="n">
         <v>808.96</v>
@@ -6157,7 +6157,7 @@
         <v>12.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.5699999999994</v>
+        <v>19.72999999999831</v>
       </c>
       <c r="R12" t="n">
         <v>4824.16</v>
@@ -6175,7 +6175,7 @@
         <v>6.13</v>
       </c>
       <c r="W12" t="n">
-        <v>42.46000000000011</v>
+        <v>0.1300000000004893</v>
       </c>
       <c r="X12" t="n">
         <v>1211.55</v>
@@ -6193,7 +6193,7 @@
         <v>7.19</v>
       </c>
       <c r="AC12" t="n">
-        <v>62.36999999999992</v>
+        <v>16.03</v>
       </c>
       <c r="AD12" t="n">
         <v>1687.7</v>
@@ -6202,7 +6202,7 @@
         <v>13.49</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.08999999999999</v>
+        <v>5.409999999999992</v>
       </c>
       <c r="AG12" t="n">
         <v>331.18</v>
@@ -6211,7 +6211,7 @@
         <v>16.46</v>
       </c>
       <c r="AI12" t="n">
-        <v>2158.420000000003</v>
+        <v>7.96000000000322</v>
       </c>
       <c r="AJ12" t="n">
         <v>75690</v>
@@ -6220,7 +6220,7 @@
         <v>12.43</v>
       </c>
       <c r="AL12" t="n">
-        <v>4.22999999999999</v>
+        <v>4.100000000000128</v>
       </c>
       <c r="AM12" t="n">
         <v>532.9400000000001</v>
@@ -6229,7 +6229,7 @@
         <v>5.76</v>
       </c>
       <c r="AO12" t="n">
-        <v>32.15000000000009</v>
+        <v>12.47000000000034</v>
       </c>
       <c r="AP12" t="n">
         <v>2569.32</v>
@@ -6247,7 +6247,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="AU12" t="n">
-        <v>32.78</v>
+        <v>18.59000000000018</v>
       </c>
       <c r="AV12" t="n">
         <v>298.94</v>
@@ -6265,7 +6265,7 @@
         <v>13.31</v>
       </c>
       <c r="BA12" t="n">
-        <v>62.94</v>
+        <v>4.89999999999992</v>
       </c>
       <c r="BB12" t="n">
         <v>578.03</v>
@@ -6274,7 +6274,7 @@
         <v>8.76</v>
       </c>
       <c r="BD12" t="n">
-        <v>9.82</v>
+        <v>3.920000000000003</v>
       </c>
       <c r="BE12" t="n">
         <v>62.46</v>
@@ -6292,7 +6292,7 @@
         <v>7.48</v>
       </c>
       <c r="BJ12" t="n">
-        <v>41.84000000000003</v>
+        <v>20.57000000000057</v>
       </c>
       <c r="BK12" t="n">
         <v>731.61</v>
@@ -6301,7 +6301,7 @@
         <v>8.91</v>
       </c>
       <c r="BM12" t="n">
-        <v>15.58</v>
+        <v>3.1</v>
       </c>
       <c r="BN12" t="n">
         <v>231.55</v>
@@ -6310,7 +6310,7 @@
         <v>13.76</v>
       </c>
       <c r="BP12" t="n">
-        <v>25.84000000000009</v>
+        <v>2.420000000000268</v>
       </c>
       <c r="BQ12" t="n">
         <v>1041.25</v>
@@ -6319,7 +6319,7 @@
         <v>14.25</v>
       </c>
       <c r="BS12" t="n">
-        <v>329.89</v>
+        <v>16.98000000000098</v>
       </c>
       <c r="BT12" t="n">
         <v>6422.18</v>
@@ -6328,7 +6328,7 @@
         <v>14.9</v>
       </c>
       <c r="BV12" t="n">
-        <v>240.4100000000002</v>
+        <v>149.1100000000064</v>
       </c>
       <c r="BW12" t="n">
         <v>7413.04</v>
@@ -6337,7 +6337,7 @@
         <v>21.79</v>
       </c>
       <c r="BY12" t="n">
-        <v>64.4800000000003</v>
+        <v>9.390000000001464</v>
       </c>
       <c r="BZ12" t="n">
         <v>4058.31</v>
@@ -6355,7 +6355,7 @@
         <v>13.51</v>
       </c>
       <c r="CE12" t="n">
-        <v>624.8200000000001</v>
+        <v>21.80000000000035</v>
       </c>
       <c r="CF12" t="n">
         <v>4236.98</v>
@@ -6364,7 +6364,7 @@
         <v>-1.03</v>
       </c>
       <c r="CH12" t="n">
-        <v>65.50000000000011</v>
+        <v>62.95000000000047</v>
       </c>
       <c r="CI12" t="n">
         <v>1304.82</v>
@@ -6373,7 +6373,7 @@
         <v>-1.17</v>
       </c>
       <c r="CK12" t="n">
-        <v>74.35000000000014</v>
+        <v>11.57000000000096</v>
       </c>
       <c r="CL12" t="n">
         <v>4575.63</v>
@@ -6382,7 +6382,7 @@
         <v>9.33</v>
       </c>
       <c r="CN12" t="n">
-        <v>13.05</v>
+        <v>7.970000000000041</v>
       </c>
       <c r="CO12" t="n">
         <v>238.3</v>
@@ -6391,7 +6391,7 @@
         <v>5.32</v>
       </c>
       <c r="CQ12" t="n">
-        <v>47.67999999999998</v>
+        <v>21.81000000000007</v>
       </c>
       <c r="CR12" t="n">
         <v>1421.97</v>
@@ -6400,7 +6400,7 @@
         <v>13.77</v>
       </c>
       <c r="CT12" t="n">
-        <v>31.44000000000008</v>
+        <v>1.410000000000871</v>
       </c>
       <c r="CU12" t="n">
         <v>2159.11</v>
@@ -6418,7 +6418,7 @@
         <v>12.12</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.300000000000001</v>
+        <v>0.01999999999991448</v>
       </c>
       <c r="DA12" t="n">
         <v>262.57</v>
@@ -6427,7 +6427,7 @@
         <v>15.2</v>
       </c>
       <c r="DC12" t="n">
-        <v>73.1700000000001</v>
+        <v>23.05000000000074</v>
       </c>
       <c r="DD12" t="n">
         <v>1190.8</v>
@@ -6436,7 +6436,7 @@
         <v>14.32</v>
       </c>
       <c r="DF12" t="n">
-        <v>54.37000000000018</v>
+        <v>2.480000000001965</v>
       </c>
       <c r="DG12" t="n">
         <v>3376.89</v>
@@ -6445,7 +6445,7 @@
         <v>12.63</v>
       </c>
       <c r="DI12" t="n">
-        <v>60.4999999999999</v>
+        <v>2.839999999999195</v>
       </c>
       <c r="DJ12" t="n">
         <v>1160.41</v>
@@ -6454,7 +6454,7 @@
         <v>7.63</v>
       </c>
       <c r="DL12" t="n">
-        <v>262.8200000000004</v>
+        <v>241.0200000000012</v>
       </c>
       <c r="DM12" t="n">
         <v>4803.81</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.03</v>
+        <v>124.6300000000004</v>
       </c>
       <c r="C13" t="n">
         <v>225.31</v>
@@ -6608,7 +6608,7 @@
         <v>12.37</v>
       </c>
       <c r="E13" t="n">
-        <v>451.1200000000001</v>
+        <v>314.2000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>691.55</v>
@@ -6617,7 +6617,7 @@
         <v>16.52</v>
       </c>
       <c r="H13" t="n">
-        <v>51.77999999999999</v>
+        <v>20.25999999999971</v>
       </c>
       <c r="I13" t="n">
         <v>96.51000000000001</v>
@@ -6626,7 +6626,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>67.94000000000001</v>
+        <v>9.15000000000013</v>
       </c>
       <c r="L13" t="n">
         <v>120.34</v>
@@ -6644,7 +6644,7 @@
         <v>-20.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>424.0799999999999</v>
+        <v>107.5100000000005</v>
       </c>
       <c r="R13" t="n">
         <v>675.26</v>
@@ -6662,7 +6662,7 @@
         <v>-3.76</v>
       </c>
       <c r="W13" t="n">
-        <v>99.09</v>
+        <v>37.78999999999863</v>
       </c>
       <c r="X13" t="n">
         <v>188.84</v>
@@ -6671,7 +6671,7 @@
         <v>18.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>40.99000000000001</v>
+        <v>3.030000000000127</v>
       </c>
       <c r="AA13" t="n">
         <v>77.31</v>
@@ -6680,7 +6680,7 @@
         <v>13.01</v>
       </c>
       <c r="AC13" t="n">
-        <v>137.5</v>
+        <v>2.460000000000399</v>
       </c>
       <c r="AD13" t="n">
         <v>230.75</v>
@@ -6689,7 +6689,7 @@
         <v>8.82</v>
       </c>
       <c r="AF13" t="n">
-        <v>27.19</v>
+        <v>1.870000000000068</v>
       </c>
       <c r="AG13" t="n">
         <v>51.25</v>
@@ -6698,7 +6698,7 @@
         <v>18.53</v>
       </c>
       <c r="AI13" t="n">
-        <v>6251.059999999999</v>
+        <v>3131.429999999985</v>
       </c>
       <c r="AJ13" t="n">
         <v>10655.04</v>
@@ -6707,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>40.23999999999999</v>
+        <v>23.32000000000003</v>
       </c>
       <c r="AM13" t="n">
         <v>72.72</v>
@@ -6716,7 +6716,7 @@
         <v>13.56</v>
       </c>
       <c r="AO13" t="n">
-        <v>215.14</v>
+        <v>86.53999999999961</v>
       </c>
       <c r="AP13" t="n">
         <v>341.87</v>
@@ -6725,7 +6725,7 @@
         <v>14.45</v>
       </c>
       <c r="AR13" t="n">
-        <v>163.2</v>
+        <v>32.30999999999968</v>
       </c>
       <c r="AS13" t="n">
         <v>252.82</v>
@@ -6734,7 +6734,7 @@
         <v>-0.76</v>
       </c>
       <c r="AU13" t="n">
-        <v>24.36</v>
+        <v>0.5499999999999687</v>
       </c>
       <c r="AV13" t="n">
         <v>37.46</v>
@@ -6743,7 +6743,7 @@
         <v>14.27</v>
       </c>
       <c r="AX13" t="n">
-        <v>157.58</v>
+        <v>106.06</v>
       </c>
       <c r="AY13" t="n">
         <v>289.15</v>
@@ -6752,7 +6752,7 @@
         <v>12.01</v>
       </c>
       <c r="BA13" t="n">
-        <v>52.90000000000001</v>
+        <v>9.180000000000209</v>
       </c>
       <c r="BB13" t="n">
         <v>70.65000000000001</v>
@@ -6761,7 +6761,7 @@
         <v>12.25</v>
       </c>
       <c r="BD13" t="n">
-        <v>6.029999999999999</v>
+        <v>2.109999999999996</v>
       </c>
       <c r="BE13" t="n">
         <v>8.5</v>
@@ -6770,7 +6770,7 @@
         <v>-13.45</v>
       </c>
       <c r="BG13" t="n">
-        <v>58.24999999999999</v>
+        <v>2.02999999999987</v>
       </c>
       <c r="BH13" t="n">
         <v>89.13</v>
@@ -6779,7 +6779,7 @@
         <v>14.96</v>
       </c>
       <c r="BJ13" t="n">
-        <v>54.17000000000002</v>
+        <v>12.32999999999999</v>
       </c>
       <c r="BK13" t="n">
         <v>135.89</v>
@@ -6788,7 +6788,7 @@
         <v>18.8</v>
       </c>
       <c r="BM13" t="n">
-        <v>23.37</v>
+        <v>0.5300000000000011</v>
       </c>
       <c r="BN13" t="n">
         <v>45.15</v>
@@ -6797,7 +6797,7 @@
         <v>6.82</v>
       </c>
       <c r="BP13" t="n">
-        <v>74.31</v>
+        <v>41.2099999999991</v>
       </c>
       <c r="BQ13" t="n">
         <v>195.37</v>
@@ -6806,7 +6806,7 @@
         <v>38.03</v>
       </c>
       <c r="BS13" t="n">
-        <v>599.0300000000001</v>
+        <v>252.1599999999991</v>
       </c>
       <c r="BT13" t="n">
         <v>966.46</v>
@@ -6815,7 +6815,7 @@
         <v>14.21</v>
       </c>
       <c r="BV13" t="n">
-        <v>647.87</v>
+        <v>19.43999999999602</v>
       </c>
       <c r="BW13" t="n">
         <v>1071.58</v>
@@ -6824,7 +6824,7 @@
         <v>17.68</v>
       </c>
       <c r="BY13" t="n">
-        <v>329.58</v>
+        <v>126.7499999999976</v>
       </c>
       <c r="BZ13" t="n">
         <v>536.8200000000001</v>
@@ -6833,7 +6833,7 @@
         <v>13.95</v>
       </c>
       <c r="CB13" t="n">
-        <v>90.75</v>
+        <v>72.87</v>
       </c>
       <c r="CC13" t="n">
         <v>161.99</v>
@@ -6842,7 +6842,7 @@
         <v>12.82</v>
       </c>
       <c r="CE13" t="n">
-        <v>334.8199999999999</v>
+        <v>11.50999999999971</v>
       </c>
       <c r="CF13" t="n">
         <v>542.24</v>
@@ -6851,7 +6851,7 @@
         <v>-13.22</v>
       </c>
       <c r="CH13" t="n">
-        <v>99.16999999999999</v>
+        <v>33.66999999999987</v>
       </c>
       <c r="CI13" t="n">
         <v>211.59</v>
@@ -6860,7 +6860,7 @@
         <v>-3.53</v>
       </c>
       <c r="CK13" t="n">
-        <v>373.9599999999999</v>
+        <v>202.1199999999976</v>
       </c>
       <c r="CL13" t="n">
         <v>616.96</v>
@@ -6869,7 +6869,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="CN13" t="n">
-        <v>19.66</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="CO13" t="n">
         <v>37.6</v>
@@ -6878,7 +6878,7 @@
         <v>9.92</v>
       </c>
       <c r="CQ13" t="n">
-        <v>118.49</v>
+        <v>5.3799999999998</v>
       </c>
       <c r="CR13" t="n">
         <v>199.88</v>
@@ -6887,7 +6887,7 @@
         <v>8.23</v>
       </c>
       <c r="CT13" t="n">
-        <v>171.35</v>
+        <v>45.58999999999963</v>
       </c>
       <c r="CU13" t="n">
         <v>297.41</v>
@@ -6896,7 +6896,7 @@
         <v>18.84</v>
       </c>
       <c r="CW13" t="n">
-        <v>224.53</v>
+        <v>206.6100000000012</v>
       </c>
       <c r="CX13" t="n">
         <v>373.94</v>
@@ -6905,7 +6905,7 @@
         <v>14.83</v>
       </c>
       <c r="CZ13" t="n">
-        <v>19.15</v>
+        <v>15.87000000000013</v>
       </c>
       <c r="DA13" t="n">
         <v>31.59</v>
@@ -6914,7 +6914,7 @@
         <v>31.32</v>
       </c>
       <c r="DC13" t="n">
-        <v>90.77000000000001</v>
+        <v>17.59999999999991</v>
       </c>
       <c r="DD13" t="n">
         <v>181.32</v>
@@ -6923,7 +6923,7 @@
         <v>13.57</v>
       </c>
       <c r="DF13" t="n">
-        <v>262.1300000000001</v>
+        <v>44.64999999999934</v>
       </c>
       <c r="DG13" t="n">
         <v>479.32</v>
@@ -6932,7 +6932,7 @@
         <v>13.63</v>
       </c>
       <c r="DI13" t="n">
-        <v>92.67000000000002</v>
+        <v>13.17000000000104</v>
       </c>
       <c r="DJ13" t="n">
         <v>178.23</v>
@@ -6941,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="DL13" t="n">
-        <v>364.73</v>
+        <v>101.9099999999996</v>
       </c>
       <c r="DM13" t="n">
         <v>720.53</v>
@@ -6950,7 +6950,7 @@
         <v>13.74</v>
       </c>
       <c r="DO13" t="n">
-        <v>11.36</v>
+        <v>10.55999999999996</v>
       </c>
       <c r="DP13" t="n">
         <v>18.11</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.02</v>
+        <v>4.339999999999918</v>
       </c>
       <c r="C14" t="n">
         <v>399.11</v>
@@ -7095,7 +7095,7 @@
         <v>15.2</v>
       </c>
       <c r="E14" t="n">
-        <v>440.1399999999999</v>
+        <v>23.24999999999977</v>
       </c>
       <c r="F14" t="n">
         <v>1216.74</v>
@@ -7113,7 +7113,7 @@
         <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>62.07999999999998</v>
+        <v>18.36999999999997</v>
       </c>
       <c r="L14" t="n">
         <v>196</v>
@@ -7149,7 +7149,7 @@
         <v>0.2</v>
       </c>
       <c r="W14" t="n">
-        <v>94.64999999999998</v>
+        <v>0.1000000000009393</v>
       </c>
       <c r="X14" t="n">
         <v>307.86</v>
@@ -7185,7 +7185,7 @@
         <v>16.9</v>
       </c>
       <c r="AI14" t="n">
-        <v>6142.240000000002</v>
+        <v>2049.600000000006</v>
       </c>
       <c r="AJ14" t="n">
         <v>17652.43</v>
@@ -7212,7 +7212,7 @@
         <v>16.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>163.11</v>
+        <v>11.23000000000044</v>
       </c>
       <c r="AS14" t="n">
         <v>427.37</v>
@@ -7221,7 +7221,7 @@
         <v>2.3</v>
       </c>
       <c r="AU14" t="n">
-        <v>24.02</v>
+        <v>22.92000000000006</v>
       </c>
       <c r="AV14" t="n">
         <v>61.46</v>
@@ -7239,7 +7239,7 @@
         <v>10.9</v>
       </c>
       <c r="BA14" t="n">
-        <v>45.94999999999999</v>
+        <v>12.88999999999981</v>
       </c>
       <c r="BB14" t="n">
         <v>127.7</v>
@@ -7266,7 +7266,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>13.34999999999996</v>
+        <v>1.019999999999971</v>
       </c>
       <c r="BK14" t="n">
         <v>200.16</v>
@@ -7275,7 +7275,7 @@
         <v>18.8</v>
       </c>
       <c r="BM14" t="n">
-        <v>20.17</v>
+        <v>4.059999999999999</v>
       </c>
       <c r="BN14" t="n">
         <v>67.86</v>
@@ -7293,7 +7293,7 @@
         <v>31.4</v>
       </c>
       <c r="BS14" t="n">
-        <v>515.6499999999999</v>
+        <v>246.5099999999998</v>
       </c>
       <c r="BT14" t="n">
         <v>1632.18</v>
@@ -7302,7 +7302,7 @@
         <v>12.9</v>
       </c>
       <c r="BV14" t="n">
-        <v>542.9099999999999</v>
+        <v>116.010000000004</v>
       </c>
       <c r="BW14" t="n">
         <v>1808.16</v>
@@ -7311,7 +7311,7 @@
         <v>16</v>
       </c>
       <c r="BY14" t="n">
-        <v>328.5</v>
+        <v>63.40000000000032</v>
       </c>
       <c r="BZ14" t="n">
         <v>896.1</v>
@@ -7329,7 +7329,7 @@
         <v>10.6</v>
       </c>
       <c r="CE14" t="n">
-        <v>333.4399999999999</v>
+        <v>310.4200000000005</v>
       </c>
       <c r="CF14" t="n">
         <v>850.85</v>
@@ -7347,7 +7347,7 @@
         <v>0.6</v>
       </c>
       <c r="CK14" t="n">
-        <v>367.5400000000001</v>
+        <v>67.93000000000029</v>
       </c>
       <c r="CL14" t="n">
         <v>1052.51</v>
@@ -7356,7 +7356,7 @@
         <v>12</v>
       </c>
       <c r="CN14" t="n">
-        <v>18.54</v>
+        <v>5.32</v>
       </c>
       <c r="CO14" t="n">
         <v>59.62</v>
@@ -7401,7 +7401,7 @@
         <v>24.5</v>
       </c>
       <c r="DC14" t="n">
-        <v>89.19</v>
+        <v>36.39000000000027</v>
       </c>
       <c r="DD14" t="n">
         <v>296.33</v>
@@ -7410,7 +7410,7 @@
         <v>18.3</v>
       </c>
       <c r="DF14" t="n">
-        <v>257.86</v>
+        <v>50.10000000000011</v>
       </c>
       <c r="DG14" t="n">
         <v>769.78</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.829999999999984</v>
+        <v>1.490000000000066</v>
       </c>
       <c r="C15" t="n">
         <v>580.16</v>
@@ -7582,7 +7582,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>413.26</v>
+        <v>366.7600000000004</v>
       </c>
       <c r="F15" t="n">
         <v>1793.42</v>
@@ -7591,7 +7591,7 @@
         <v>20.8</v>
       </c>
       <c r="H15" t="n">
-        <v>57.69</v>
+        <v>16.20999999999987</v>
       </c>
       <c r="I15" t="n">
         <v>228.47</v>
@@ -7618,7 +7618,7 @@
         <v>-5.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>399.3799999999999</v>
+        <v>316.9399999999991</v>
       </c>
       <c r="R15" t="n">
         <v>1628.16</v>
@@ -7645,7 +7645,7 @@
         <v>17.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>41.92999999999998</v>
+        <v>30.28999999999995</v>
       </c>
       <c r="AA15" t="n">
         <v>168.42</v>
@@ -7654,7 +7654,7 @@
         <v>9.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.620000000000005</v>
+        <v>0.1399999999999868</v>
       </c>
       <c r="AD15" t="n">
         <v>548.58</v>
@@ -7717,7 +7717,7 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>155.64</v>
+        <v>125.48</v>
       </c>
       <c r="AY15" t="n">
         <v>654.01</v>
@@ -7735,7 +7735,7 @@
         <v>11.8</v>
       </c>
       <c r="BD15" t="n">
-        <v>5.079999999999998</v>
+        <v>4.11999999999999</v>
       </c>
       <c r="BE15" t="n">
         <v>17.61</v>
@@ -7744,7 +7744,7 @@
         <v>-20.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>57.28999999999999</v>
+        <v>55.08999999999991</v>
       </c>
       <c r="BH15" t="n">
         <v>213.93</v>
@@ -7753,7 +7753,7 @@
         <v>9.9</v>
       </c>
       <c r="BJ15" t="n">
-        <v>44.76999999999998</v>
+        <v>16.03000000000012</v>
       </c>
       <c r="BK15" t="n">
         <v>265.74</v>
@@ -7762,7 +7762,7 @@
         <v>12.6</v>
       </c>
       <c r="BM15" t="n">
-        <v>19.22</v>
+        <v>2.249999999999998</v>
       </c>
       <c r="BN15" t="n">
         <v>89.79000000000001</v>
@@ -7780,7 +7780,7 @@
         <v>29.1</v>
       </c>
       <c r="BS15" t="n">
-        <v>508.1400000000001</v>
+        <v>15.12000000000049</v>
       </c>
       <c r="BT15" t="n">
         <v>2244.92</v>
@@ -7807,7 +7807,7 @@
         <v>13.3</v>
       </c>
       <c r="CB15" t="n">
-        <v>10.89000000000003</v>
+        <v>1.680000000000136</v>
       </c>
       <c r="CC15" t="n">
         <v>374.02</v>
@@ -7852,7 +7852,7 @@
         <v>12.2</v>
       </c>
       <c r="CQ15" t="n">
-        <v>116.85</v>
+        <v>115.65</v>
       </c>
       <c r="CR15" t="n">
         <v>460.56</v>
@@ -7861,7 +7861,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CT15" t="n">
-        <v>11.38</v>
+        <v>0.2999999999999612</v>
       </c>
       <c r="CU15" t="n">
         <v>699.02</v>
@@ -7879,7 +7879,7 @@
         <v>14.1</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.29999999999999</v>
+        <v>0.2599999999999833</v>
       </c>
       <c r="DA15" t="n">
         <v>78.84</v>
@@ -7915,7 +7915,7 @@
         <v>5</v>
       </c>
       <c r="DL15" t="n">
-        <v>34.01999999999998</v>
+        <v>1.980000000000022</v>
       </c>
       <c r="DM15" t="n">
         <v>1609.44</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.31000000000012</v>
+        <v>0.160000000000085</v>
       </c>
       <c r="C16" t="n">
         <v>759.01</v>
@@ -8087,7 +8087,7 @@
         <v>10.8</v>
       </c>
       <c r="K16" t="n">
-        <v>66.78000000000003</v>
+        <v>14.29999999999999</v>
       </c>
       <c r="L16" t="n">
         <v>349.31</v>
@@ -8114,7 +8114,7 @@
         <v>9.5</v>
       </c>
       <c r="T16" t="n">
-        <v>67.76999999999998</v>
+        <v>57.52999999999997</v>
       </c>
       <c r="U16" t="n">
         <v>351.9</v>
@@ -8141,7 +8141,7 @@
         <v>11.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>140.87</v>
+        <v>132.09</v>
       </c>
       <c r="AD16" t="n">
         <v>721.99</v>
@@ -8150,7 +8150,7 @@
         <v>13.6</v>
       </c>
       <c r="AF16" t="n">
-        <v>27.33</v>
+        <v>26.16999999999996</v>
       </c>
       <c r="AG16" t="n">
         <v>149.26</v>
@@ -8159,7 +8159,7 @@
         <v>18.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>270.7800000000016</v>
+        <v>65.05000000000481</v>
       </c>
       <c r="AJ16" t="n">
         <v>31987.36</v>
@@ -8168,7 +8168,7 @@
         <v>12.9</v>
       </c>
       <c r="AL16" t="n">
-        <v>43.16000000000003</v>
+        <v>38.08000000000015</v>
       </c>
       <c r="AM16" t="n">
         <v>213.82</v>
@@ -8177,7 +8177,7 @@
         <v>11.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.530000000000001</v>
+        <v>3.090000000000003</v>
       </c>
       <c r="AP16" t="n">
         <v>1154.89</v>
@@ -8195,7 +8195,7 @@
         <v>5.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>24.27999999999999</v>
+        <v>14.19999999999995</v>
       </c>
       <c r="AV16" t="n">
         <v>115.44</v>
@@ -8222,7 +8222,7 @@
         <v>11.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.600000000000001</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="BE16" t="n">
         <v>21.61</v>
@@ -8249,7 +8249,7 @@
         <v>16.2</v>
       </c>
       <c r="BM16" t="n">
-        <v>18.42999999999999</v>
+        <v>11.58999999999999</v>
       </c>
       <c r="BN16" t="n">
         <v>107.12</v>
@@ -8276,7 +8276,7 @@
         <v>14.6</v>
       </c>
       <c r="BV16" t="n">
-        <v>66.64999999999964</v>
+        <v>29.19999999999936</v>
       </c>
       <c r="BW16" t="n">
         <v>3160.65</v>
@@ -8294,7 +8294,7 @@
         <v>11.9</v>
       </c>
       <c r="CB16" t="n">
-        <v>103.3199999999999</v>
+        <v>78.17999999999957</v>
       </c>
       <c r="CC16" t="n">
         <v>482.59</v>
@@ -8303,7 +8303,7 @@
         <v>11.5</v>
       </c>
       <c r="CE16" t="n">
-        <v>351.8000000000002</v>
+        <v>35.7199999999998</v>
       </c>
       <c r="CF16" t="n">
         <v>1547.88</v>
@@ -8312,7 +8312,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="CH16" t="n">
-        <v>17.2600000000001</v>
+        <v>10.34000000000048</v>
       </c>
       <c r="CI16" t="n">
         <v>559.6</v>
@@ -8330,7 +8330,7 @@
         <v>12.7</v>
       </c>
       <c r="CN16" t="n">
-        <v>1.210000000000001</v>
+        <v>0.009999999999998177</v>
       </c>
       <c r="CO16" t="n">
         <v>101.38</v>
@@ -8348,7 +8348,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CT16" t="n">
-        <v>15.47</v>
+        <v>1.020000000000029</v>
       </c>
       <c r="CU16" t="n">
         <v>924.88</v>
@@ -8366,7 +8366,7 @@
         <v>14.2</v>
       </c>
       <c r="CZ16" t="n">
-        <v>2.190000000000019</v>
+        <v>0.1100000000000425</v>
       </c>
       <c r="DA16" t="n">
         <v>104.69</v>
@@ -8375,7 +8375,7 @@
         <v>25.6</v>
       </c>
       <c r="DC16" t="n">
-        <v>96.14999999999998</v>
+        <v>63.79000000000008</v>
       </c>
       <c r="DD16" t="n">
         <v>516.05</v>
@@ -8384,7 +8384,7 @@
         <v>18.1</v>
       </c>
       <c r="DF16" t="n">
-        <v>24.80000000000013</v>
+        <v>8.980000000000249</v>
       </c>
       <c r="DG16" t="n">
         <v>1369.29</v>
@@ -8393,7 +8393,7 @@
         <v>12.7</v>
       </c>
       <c r="DI16" t="n">
-        <v>8.440000000000055</v>
+        <v>4.400000000000319</v>
       </c>
       <c r="DJ16" t="n">
         <v>479.33</v>
@@ -8402,7 +8402,7 @@
         <v>3.8</v>
       </c>
       <c r="DL16" t="n">
-        <v>403.7700000000002</v>
+        <v>347.7900000000002</v>
       </c>
       <c r="DM16" t="n">
         <v>2089.46</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>128.9299999999999</v>
+        <v>104.8399999999994</v>
       </c>
       <c r="C17" t="n">
         <v>945.34</v>
@@ -8556,7 +8556,7 @@
         <v>17.2</v>
       </c>
       <c r="E17" t="n">
-        <v>371.6700000000001</v>
+        <v>307.1500000000005</v>
       </c>
       <c r="F17" t="n">
         <v>2927.13</v>
@@ -8565,7 +8565,7 @@
         <v>25.8</v>
       </c>
       <c r="H17" t="n">
-        <v>50.54999999999995</v>
+        <v>24.94999999999981</v>
       </c>
       <c r="I17" t="n">
         <v>364.51</v>
@@ -8583,7 +8583,7 @@
         <v>16.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="O17" t="n">
         <v>0.5600000000000001</v>
@@ -8592,7 +8592,7 @@
         <v>-32</v>
       </c>
       <c r="Q17" t="n">
-        <v>390.5899999999997</v>
+        <v>63.90999999999849</v>
       </c>
       <c r="R17" t="n">
         <v>2600.9</v>
@@ -8601,7 +8601,7 @@
         <v>9.1</v>
       </c>
       <c r="T17" t="n">
-        <v>63.66000000000003</v>
+        <v>1.010000000000055</v>
       </c>
       <c r="U17" t="n">
         <v>422.5</v>
@@ -8610,7 +8610,7 @@
         <v>4.3</v>
       </c>
       <c r="W17" t="n">
-        <v>99.19999999999993</v>
+        <v>91.79999999999984</v>
       </c>
       <c r="X17" t="n">
         <v>648.28</v>
@@ -8619,7 +8619,7 @@
         <v>17.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>43.64999999999998</v>
+        <v>34.56999999999982</v>
       </c>
       <c r="AA17" t="n">
         <v>265.83</v>
@@ -8646,7 +8646,7 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>6230.690000000002</v>
+        <v>5764.759999999987</v>
       </c>
       <c r="AJ17" t="n">
         <v>39717.71</v>
@@ -8664,7 +8664,7 @@
         <v>13.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>205.8299999999999</v>
+        <v>188.0299999999999</v>
       </c>
       <c r="AP17" t="n">
         <v>1453.38</v>
@@ -8673,7 +8673,7 @@
         <v>21.4</v>
       </c>
       <c r="AR17" t="n">
-        <v>155.98</v>
+        <v>133.5800000000004</v>
       </c>
       <c r="AS17" t="n">
         <v>991.26</v>
@@ -8691,7 +8691,7 @@
         <v>11.4</v>
       </c>
       <c r="AX17" t="n">
-        <v>164.1499999999999</v>
+        <v>128.8699999999999</v>
       </c>
       <c r="AY17" t="n">
         <v>1015.09</v>
@@ -8700,7 +8700,7 @@
         <v>12.7</v>
       </c>
       <c r="BA17" t="n">
-        <v>46.85000000000002</v>
+        <v>40.09000000000014</v>
       </c>
       <c r="BB17" t="n">
         <v>296.07</v>
@@ -8709,7 +8709,7 @@
         <v>12.6</v>
       </c>
       <c r="BD17" t="n">
-        <v>3.309999999999999</v>
+        <v>3.309999999999992</v>
       </c>
       <c r="BE17" t="n">
         <v>26.2</v>
@@ -8718,7 +8718,7 @@
         <v>-17.6</v>
       </c>
       <c r="BG17" t="n">
-        <v>56.81</v>
+        <v>38.93</v>
       </c>
       <c r="BH17" t="n">
         <v>350.02</v>
@@ -8727,7 +8727,7 @@
         <v>11.6</v>
       </c>
       <c r="BJ17" t="n">
-        <v>49.88999999999999</v>
+        <v>2.52999999999993</v>
       </c>
       <c r="BK17" t="n">
         <v>388.18</v>
@@ -8745,7 +8745,7 @@
         <v>3.5</v>
       </c>
       <c r="BP17" t="n">
-        <v>85.65999999999997</v>
+        <v>77.53999999999985</v>
       </c>
       <c r="BQ17" t="n">
         <v>608.17</v>
@@ -8754,7 +8754,7 @@
         <v>27.5</v>
       </c>
       <c r="BS17" t="n">
-        <v>67.41999999999962</v>
+        <v>32.85999999999922</v>
       </c>
       <c r="BT17" t="n">
         <v>3413.1</v>
@@ -8763,7 +8763,7 @@
         <v>14.3</v>
       </c>
       <c r="BV17" t="n">
-        <v>624</v>
+        <v>469.7500000000022</v>
       </c>
       <c r="BW17" t="n">
         <v>3956.51</v>
@@ -8772,7 +8772,7 @@
         <v>18.9</v>
       </c>
       <c r="BY17" t="n">
-        <v>352.4499999999998</v>
+        <v>228.8900000000002</v>
       </c>
       <c r="BZ17" t="n">
         <v>2136.08</v>
@@ -8799,7 +8799,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="CH17" t="n">
-        <v>98.5</v>
+        <v>39.83999999999901</v>
       </c>
       <c r="CI17" t="n">
         <v>690.35</v>
@@ -8808,7 +8808,7 @@
         <v>0.9</v>
       </c>
       <c r="CK17" t="n">
-        <v>365.5799999999999</v>
+        <v>349.7399999999991</v>
       </c>
       <c r="CL17" t="n">
         <v>2354.5</v>
@@ -8817,7 +8817,7 @@
         <v>14.1</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.5399999999999885</v>
+        <v>0.2299999999999896</v>
       </c>
       <c r="CO17" t="n">
         <v>124.84</v>
@@ -8826,7 +8826,7 @@
         <v>12.2</v>
       </c>
       <c r="CQ17" t="n">
-        <v>112.42</v>
+        <v>89.98</v>
       </c>
       <c r="CR17" t="n">
         <v>733.97</v>
@@ -8835,7 +8835,7 @@
         <v>11</v>
       </c>
       <c r="CT17" t="n">
-        <v>173.29</v>
+        <v>145.55</v>
       </c>
       <c r="CU17" t="n">
         <v>1168.03</v>
@@ -8844,7 +8844,7 @@
         <v>18.9</v>
       </c>
       <c r="CW17" t="n">
-        <v>241.52</v>
+        <v>199.1200000000008</v>
       </c>
       <c r="CX17" t="n">
         <v>1490.65</v>
@@ -8862,7 +8862,7 @@
         <v>25.8</v>
       </c>
       <c r="DC17" t="n">
-        <v>84.44000000000005</v>
+        <v>4.470000000000027</v>
       </c>
       <c r="DD17" t="n">
         <v>644.36</v>
@@ -8871,7 +8871,7 @@
         <v>20.9</v>
       </c>
       <c r="DF17" t="n">
-        <v>263.3099999999999</v>
+        <v>211.5699999999989</v>
       </c>
       <c r="DG17" t="n">
         <v>1731.77</v>
@@ -8880,7 +8880,7 @@
         <v>14.4</v>
       </c>
       <c r="DI17" t="n">
-        <v>104.1800000000001</v>
+        <v>76.47999999999949</v>
       </c>
       <c r="DJ17" t="n">
         <v>597.75</v>
@@ -8889,7 +8889,7 @@
         <v>4.9</v>
       </c>
       <c r="DL17" t="n">
-        <v>400.5299999999997</v>
+        <v>30.77999999999946</v>
       </c>
       <c r="DM17" t="n">
         <v>2554.73</v>
@@ -8898,7 +8898,7 @@
         <v>16.3</v>
       </c>
       <c r="DO17" t="n">
-        <v>12.49999999999999</v>
+        <v>5.13999999999999</v>
       </c>
       <c r="DP17" t="n">
         <v>73.7</v>
@@ -9061,7 +9061,7 @@
         <v>11.8</v>
       </c>
       <c r="K18" t="n">
-        <v>67.44</v>
+        <v>63.88000000000005</v>
       </c>
       <c r="L18" t="n">
         <v>509.38</v>
@@ -9070,7 +9070,7 @@
         <v>15.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.11</v>
+        <v>0.009999999999999908</v>
       </c>
       <c r="O18" t="n">
         <v>0.63</v>
@@ -9088,7 +9088,7 @@
         <v>9.5</v>
       </c>
       <c r="T18" t="n">
-        <v>6.529999999999909</v>
+        <v>5.519999999999854</v>
       </c>
       <c r="U18" t="n">
         <v>502.54</v>
@@ -9097,7 +9097,7 @@
         <v>7.2</v>
       </c>
       <c r="W18" t="n">
-        <v>94</v>
+        <v>0.3500000000001364</v>
       </c>
       <c r="X18" t="n">
         <v>759.8</v>
@@ -9106,7 +9106,7 @@
         <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>43.43000000000001</v>
+        <v>2.050000000000068</v>
       </c>
       <c r="AA18" t="n">
         <v>315.86</v>
@@ -9115,7 +9115,7 @@
         <v>11.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>132.4799999999999</v>
+        <v>68.71999999999953</v>
       </c>
       <c r="AD18" t="n">
         <v>1049.17</v>
@@ -9142,7 +9142,7 @@
         <v>14.1</v>
       </c>
       <c r="AL18" t="n">
-        <v>47.86000000000001</v>
+        <v>25.8200000000002</v>
       </c>
       <c r="AM18" t="n">
         <v>320</v>
@@ -9160,7 +9160,7 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>151.8199999999999</v>
+        <v>1.439999999999799</v>
       </c>
       <c r="AS18" t="n">
         <v>1169.94</v>
@@ -9169,7 +9169,7 @@
         <v>7.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>23.59999999999999</v>
+        <v>11.11999999999991</v>
       </c>
       <c r="AV18" t="n">
         <v>171.6</v>
@@ -9187,7 +9187,7 @@
         <v>12.8</v>
       </c>
       <c r="BA18" t="n">
-        <v>46.69999999999999</v>
+        <v>1.539999999999935</v>
       </c>
       <c r="BB18" t="n">
         <v>351.67</v>
@@ -9205,7 +9205,7 @@
         <v>-15.8</v>
       </c>
       <c r="BG18" t="n">
-        <v>55.31</v>
+        <v>2.969999999999999</v>
       </c>
       <c r="BH18" t="n">
         <v>425.46</v>
@@ -9223,7 +9223,7 @@
         <v>16</v>
       </c>
       <c r="BM18" t="n">
-        <v>18.34999999999999</v>
+        <v>17.82999999999987</v>
       </c>
       <c r="BN18" t="n">
         <v>148.91</v>
@@ -9259,7 +9259,7 @@
         <v>18.7</v>
       </c>
       <c r="BY18" t="n">
-        <v>346.98</v>
+        <v>25.42000000000013</v>
       </c>
       <c r="BZ18" t="n">
         <v>2506.93</v>
@@ -9277,7 +9277,7 @@
         <v>13.2</v>
       </c>
       <c r="CE18" t="n">
-        <v>304.5099999999998</v>
+        <v>186.310000000001</v>
       </c>
       <c r="CF18" t="n">
         <v>2237.35</v>
@@ -9304,7 +9304,7 @@
         <v>14.2</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.5700000000000394</v>
+        <v>0.03000000000005087</v>
       </c>
       <c r="CO18" t="n">
         <v>146.9</v>
@@ -9340,7 +9340,7 @@
         <v>16.4</v>
       </c>
       <c r="CZ18" t="n">
-        <v>21.54000000000002</v>
+        <v>21.2200000000001</v>
       </c>
       <c r="DA18" t="n">
         <v>157.96</v>
@@ -9349,7 +9349,7 @@
         <v>22.3</v>
       </c>
       <c r="DC18" t="n">
-        <v>7.889999999999986</v>
+        <v>3.419999999999959</v>
       </c>
       <c r="DD18" t="n">
         <v>743.88</v>
@@ -9367,7 +9367,7 @@
         <v>14.3</v>
       </c>
       <c r="DI18" t="n">
-        <v>84.03999999999996</v>
+        <v>2.150000000000219</v>
       </c>
       <c r="DJ18" t="n">
         <v>702.35</v>
@@ -9385,7 +9385,7 @@
         <v>17</v>
       </c>
       <c r="DO18" t="n">
-        <v>11.72000000000001</v>
+        <v>1.06000000000002</v>
       </c>
       <c r="DP18" t="n">
         <v>86.31</v>
@@ -9539,7 +9539,7 @@
         <v>28.4</v>
       </c>
       <c r="H19" t="n">
-        <v>66.49000000000001</v>
+        <v>12.84999999999983</v>
       </c>
       <c r="I19" t="n">
         <v>506.53</v>
@@ -9557,7 +9557,7 @@
         <v>15.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.01000000000000005</v>
       </c>
       <c r="O19" t="n">
         <v>0.8</v>
@@ -9566,7 +9566,7 @@
         <v>-27.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>422.77</v>
+        <v>158.089999999998</v>
       </c>
       <c r="R19" t="n">
         <v>3573.45</v>
@@ -9593,7 +9593,7 @@
         <v>16.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.139999999999986</v>
+        <v>2.03999999999985</v>
       </c>
       <c r="AA19" t="n">
         <v>363.23</v>
@@ -9611,7 +9611,7 @@
         <v>13.9</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.600000000000019</v>
+        <v>1.790000000000038</v>
       </c>
       <c r="AG19" t="n">
         <v>246.02</v>
@@ -9620,7 +9620,7 @@
         <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>356.0300000000061</v>
+        <v>18.29000000001551</v>
       </c>
       <c r="AJ19" t="n">
         <v>54456.84</v>
@@ -9647,7 +9647,7 @@
         <v>21.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>10.75000000000028</v>
+        <v>7.870000000000683</v>
       </c>
       <c r="AS19" t="n">
         <v>1349.4</v>
@@ -9665,7 +9665,7 @@
         <v>6.7</v>
       </c>
       <c r="AX19" t="n">
-        <v>16.53999999999999</v>
+        <v>3.809999999999768</v>
       </c>
       <c r="AY19" t="n">
         <v>1397.26</v>
@@ -9674,7 +9674,7 @@
         <v>12.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>46.65999999999997</v>
+        <v>43.5800000000001</v>
       </c>
       <c r="BB19" t="n">
         <v>402.9</v>
@@ -9692,7 +9692,7 @@
         <v>-12.9</v>
       </c>
       <c r="BG19" t="n">
-        <v>5.110000000000021</v>
+        <v>2.140000000000022</v>
       </c>
       <c r="BH19" t="n">
         <v>487.23</v>
@@ -9701,7 +9701,7 @@
         <v>14.4</v>
       </c>
       <c r="BJ19" t="n">
-        <v>16.60000000000008</v>
+        <v>4.880000000000062</v>
       </c>
       <c r="BK19" t="n">
         <v>513.21</v>
@@ -9728,7 +9728,7 @@
         <v>26.9</v>
       </c>
       <c r="BS19" t="n">
-        <v>535.8399999999992</v>
+        <v>528.4799999999968</v>
       </c>
       <c r="BT19" t="n">
         <v>4831.71</v>
@@ -9737,7 +9737,7 @@
         <v>16.3</v>
       </c>
       <c r="BV19" t="n">
-        <v>98.59999999999991</v>
+        <v>28.36000000000012</v>
       </c>
       <c r="BW19" t="n">
         <v>5475.32</v>
@@ -9755,7 +9755,7 @@
         <v>10.4</v>
       </c>
       <c r="CB19" t="n">
-        <v>109.16</v>
+        <v>88.68000000000039</v>
       </c>
       <c r="CC19" t="n">
         <v>865.54</v>
@@ -9773,7 +9773,7 @@
         <v>-7</v>
       </c>
       <c r="CH19" t="n">
-        <v>115.52</v>
+        <v>18.27999999999959</v>
       </c>
       <c r="CI19" t="n">
         <v>894.66</v>
@@ -9782,7 +9782,7 @@
         <v>-1.2</v>
       </c>
       <c r="CK19" t="n">
-        <v>24.6899999999996</v>
+        <v>7.9099999999994</v>
       </c>
       <c r="CL19" t="n">
         <v>3226.3</v>
@@ -9791,7 +9791,7 @@
         <v>14.8</v>
       </c>
       <c r="CN19" t="n">
-        <v>21.06</v>
+        <v>20.39999999999981</v>
       </c>
       <c r="CO19" t="n">
         <v>169.86</v>
@@ -9800,7 +9800,7 @@
         <v>11</v>
       </c>
       <c r="CQ19" t="n">
-        <v>14.2999999999999</v>
+        <v>1.84999999999958</v>
       </c>
       <c r="CR19" t="n">
         <v>1002.57</v>
@@ -9818,7 +9818,7 @@
         <v>19.8</v>
       </c>
       <c r="CW19" t="n">
-        <v>19.08000000000013</v>
+        <v>2.040000000000168</v>
       </c>
       <c r="CX19" t="n">
         <v>2069.6</v>
@@ -9836,7 +9836,7 @@
         <v>20.8</v>
       </c>
       <c r="DC19" t="n">
-        <v>17.73999999999985</v>
+        <v>1.959999999999877</v>
       </c>
       <c r="DD19" t="n">
         <v>858.09</v>
@@ -9845,7 +9845,7 @@
         <v>20.9</v>
       </c>
       <c r="DF19" t="n">
-        <v>49.22999999999979</v>
+        <v>7.679999999999222</v>
       </c>
       <c r="DG19" t="n">
         <v>2371.33</v>
@@ -9863,7 +9863,7 @@
         <v>6.7</v>
       </c>
       <c r="DL19" t="n">
-        <v>411.2399999999998</v>
+        <v>337.1599999999978</v>
       </c>
       <c r="DM19" t="n">
         <v>3480.38</v>
@@ -9872,7 +9872,7 @@
         <v>15.4</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.689999999999991</v>
+        <v>0.629999999999971</v>
       </c>
       <c r="DP19" t="n">
         <v>101.25</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.6199999999999</v>
+        <v>106.1000000000007</v>
       </c>
       <c r="C20" t="n">
         <v>1487.69</v>
@@ -10017,7 +10017,7 @@
         <v>20.7</v>
       </c>
       <c r="E20" t="n">
-        <v>402.29</v>
+        <v>322.8900000000004</v>
       </c>
       <c r="F20" t="n">
         <v>4606.96</v>
@@ -10026,7 +10026,7 @@
         <v>29.9</v>
       </c>
       <c r="H20" t="n">
-        <v>52.29999999999995</v>
+        <v>3.689999999999998</v>
       </c>
       <c r="I20" t="n">
         <v>598.1900000000001</v>
@@ -10035,7 +10035,7 @@
         <v>16.2</v>
       </c>
       <c r="K20" t="n">
-        <v>72.20999999999992</v>
+        <v>47.0899999999998</v>
       </c>
       <c r="L20" t="n">
         <v>666.08</v>
@@ -10044,7 +10044,7 @@
         <v>14.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
@@ -10062,7 +10062,7 @@
         <v>11.2</v>
       </c>
       <c r="T20" t="n">
-        <v>65.64999999999998</v>
+        <v>47.00999999999966</v>
       </c>
       <c r="U20" t="n">
         <v>687.77</v>
@@ -10071,7 +10071,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>25.94</v>
+        <v>0.579999999999993</v>
       </c>
       <c r="X20" t="n">
         <v>1004.8</v>
@@ -10080,7 +10080,7 @@
         <v>19.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>47.78000000000003</v>
+        <v>25.27000000000015</v>
       </c>
       <c r="AA20" t="n">
         <v>415.94</v>
@@ -10089,7 +10089,7 @@
         <v>10.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>147.3899999999999</v>
+        <v>79.7499999999991</v>
       </c>
       <c r="AD20" t="n">
         <v>1387.99</v>
@@ -10098,7 +10098,7 @@
         <v>14.2</v>
       </c>
       <c r="AF20" t="n">
-        <v>30.66999999999999</v>
+        <v>21.69999999999985</v>
       </c>
       <c r="AG20" t="n">
         <v>281.08</v>
@@ -10107,7 +10107,7 @@
         <v>17.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>6720.469999999994</v>
+        <v>6140.699999999946</v>
       </c>
       <c r="AJ20" t="n">
         <v>62583.03</v>
@@ -10116,7 +10116,7 @@
         <v>15.2</v>
       </c>
       <c r="AL20" t="n">
-        <v>51.95999999999998</v>
+        <v>32.60000000000006</v>
       </c>
       <c r="AM20" t="n">
         <v>436.42</v>
@@ -10125,7 +10125,7 @@
         <v>13.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>205.48</v>
+        <v>172.0799999999996</v>
       </c>
       <c r="AP20" t="n">
         <v>2258.23</v>
@@ -10134,7 +10134,7 @@
         <v>22.1</v>
       </c>
       <c r="AR20" t="n">
-        <v>160.9199999999998</v>
+        <v>119.3599999999984</v>
       </c>
       <c r="AS20" t="n">
         <v>1541.31</v>
@@ -10143,7 +10143,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AU20" t="n">
-        <v>26.15000000000001</v>
+        <v>6.90999999999997</v>
       </c>
       <c r="AV20" t="n">
         <v>225.82</v>
@@ -10152,7 +10152,7 @@
         <v>6.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>174.5799999999999</v>
+        <v>146.6100000000005</v>
       </c>
       <c r="AY20" t="n">
         <v>1605.76</v>
@@ -10170,7 +10170,7 @@
         <v>13.9</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.969999999999999</v>
+        <v>0.170000000000001</v>
       </c>
       <c r="BE20" t="n">
         <v>37.81</v>
@@ -10179,7 +10179,7 @@
         <v>-7.8</v>
       </c>
       <c r="BG20" t="n">
-        <v>58.48999999999995</v>
+        <v>41.01999999999987</v>
       </c>
       <c r="BH20" t="n">
         <v>555.3200000000001</v>
@@ -10188,7 +10188,7 @@
         <v>14.2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>63.1099999999999</v>
+        <v>26.00999999999962</v>
       </c>
       <c r="BK20" t="n">
         <v>585.55</v>
@@ -10197,7 +10197,7 @@
         <v>13.6</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.21999999999997</v>
+        <v>0.3899999999999504</v>
       </c>
       <c r="BN20" t="n">
         <v>191.86</v>
@@ -10206,7 +10206,7 @@
         <v>6.9</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.649999999999977</v>
+        <v>0.6899999999999409</v>
       </c>
       <c r="BQ20" t="n">
         <v>946.97</v>
@@ -10215,7 +10215,7 @@
         <v>27</v>
       </c>
       <c r="BS20" t="n">
-        <v>535.2800000000007</v>
+        <v>1.280000000002019</v>
       </c>
       <c r="BT20" t="n">
         <v>5460.41</v>
@@ -10224,7 +10224,7 @@
         <v>16.4</v>
       </c>
       <c r="BV20" t="n">
-        <v>114.6400000000003</v>
+        <v>16.04000000000039</v>
       </c>
       <c r="BW20" t="n">
         <v>6428.81</v>
@@ -10233,7 +10233,7 @@
         <v>20.5</v>
       </c>
       <c r="BY20" t="n">
-        <v>338.5900000000001</v>
+        <v>254.3099999999995</v>
       </c>
       <c r="BZ20" t="n">
         <v>3293.35</v>
@@ -10251,7 +10251,7 @@
         <v>14.7</v>
       </c>
       <c r="CE20" t="n">
-        <v>335.6199999999999</v>
+        <v>166.1399999999987</v>
       </c>
       <c r="CF20" t="n">
         <v>2953.89</v>
@@ -10260,7 +10260,7 @@
         <v>-4.4</v>
       </c>
       <c r="CH20" t="n">
-        <v>99.37999999999988</v>
+        <v>8.169999999999987</v>
       </c>
       <c r="CI20" t="n">
         <v>1030.65</v>
@@ -10269,7 +10269,7 @@
         <v>0.9</v>
       </c>
       <c r="CK20" t="n">
-        <v>28.87000000000035</v>
+        <v>4.180000000000749</v>
       </c>
       <c r="CL20" t="n">
         <v>3702.26</v>
@@ -10287,7 +10287,7 @@
         <v>12.4</v>
       </c>
       <c r="CQ20" t="n">
-        <v>121.2199999999999</v>
+        <v>88.92000000000094</v>
       </c>
       <c r="CR20" t="n">
         <v>1146.89</v>
@@ -10314,7 +10314,7 @@
         <v>17.2</v>
       </c>
       <c r="CZ20" t="n">
-        <v>23.93000000000001</v>
+        <v>5.09000000000009</v>
       </c>
       <c r="DA20" t="n">
         <v>206.19</v>
@@ -10323,7 +10323,7 @@
         <v>13.5</v>
       </c>
       <c r="DC20" t="n">
-        <v>105.28</v>
+        <v>73.77000000000052</v>
       </c>
       <c r="DD20" t="n">
         <v>991.24</v>
@@ -10332,7 +10332,7 @@
         <v>20.9</v>
       </c>
       <c r="DF20" t="n">
-        <v>294.6700000000001</v>
+        <v>180.8500000000021</v>
       </c>
       <c r="DG20" t="n">
         <v>2747.95</v>
@@ -10341,7 +10341,7 @@
         <v>15.4</v>
       </c>
       <c r="DI20" t="n">
-        <v>84.14999999999998</v>
+        <v>30.90999999999974</v>
       </c>
       <c r="DJ20" t="n">
         <v>917.6900000000001</v>
@@ -10350,7 +10350,7 @@
         <v>7.3</v>
       </c>
       <c r="DL20" t="n">
-        <v>393.3299999999999</v>
+        <v>0.6100000000006389</v>
       </c>
       <c r="DM20" t="n">
         <v>3973.35</v>
@@ -10359,7 +10359,7 @@
         <v>15.9</v>
       </c>
       <c r="DO20" t="n">
-        <v>12.3</v>
+        <v>6.600000000000058</v>
       </c>
       <c r="DP20" t="n">
         <v>116.05</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>144.8700000000001</v>
+        <v>3.879999999999995</v>
       </c>
       <c r="C21" t="n">
         <v>1670.17</v>
@@ -10513,7 +10513,7 @@
         <v>30.78</v>
       </c>
       <c r="H21" t="n">
-        <v>38.70000000000005</v>
+        <v>31.32000000000005</v>
       </c>
       <c r="I21" t="n">
         <v>676.99</v>
@@ -10522,7 +10522,7 @@
         <v>19.36</v>
       </c>
       <c r="K21" t="n">
-        <v>71.00999999999999</v>
+        <v>5.080000000000098</v>
       </c>
       <c r="L21" t="n">
         <v>752.92</v>
@@ -10531,7 +10531,7 @@
         <v>15.16</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.01000000000000008</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -10540,7 +10540,7 @@
         <v>-11.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>431.3400000000001</v>
+        <v>355.9799999999993</v>
       </c>
       <c r="R21" t="n">
         <v>4587.61</v>
@@ -10558,7 +10558,7 @@
         <v>13.58</v>
       </c>
       <c r="W21" t="n">
-        <v>116.95</v>
+        <v>51.23</v>
       </c>
       <c r="X21" t="n">
         <v>1138.47</v>
@@ -10567,7 +10567,7 @@
         <v>17.34</v>
       </c>
       <c r="Z21" t="n">
-        <v>47.68000000000001</v>
+        <v>6.039999999999964</v>
       </c>
       <c r="AA21" t="n">
         <v>472.08</v>
@@ -10594,7 +10594,7 @@
         <v>17.45</v>
       </c>
       <c r="AI21" t="n">
-        <v>6643.180000000008</v>
+        <v>278.7400000000198</v>
       </c>
       <c r="AJ21" t="n">
         <v>70583.67</v>
@@ -10603,7 +10603,7 @@
         <v>15.59</v>
       </c>
       <c r="AL21" t="n">
-        <v>47.24000000000001</v>
+        <v>0.1200000000000117</v>
       </c>
       <c r="AM21" t="n">
         <v>495.18</v>
@@ -10621,7 +10621,7 @@
         <v>23.57</v>
       </c>
       <c r="AR21" t="n">
-        <v>156.0700000000002</v>
+        <v>5.900000000000688</v>
       </c>
       <c r="AS21" t="n">
         <v>1752.84</v>
@@ -10648,7 +10648,7 @@
         <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>54.63</v>
+        <v>14.98999999999991</v>
       </c>
       <c r="BB21" t="n">
         <v>518.42</v>
@@ -10657,7 +10657,7 @@
         <v>12.75</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.740000000000002</v>
+        <v>0.3600000000000008</v>
       </c>
       <c r="BE21" t="n">
         <v>42.3</v>
@@ -10684,7 +10684,7 @@
         <v>13.57</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.770000000000039</v>
+        <v>0.1600000000001187</v>
       </c>
       <c r="BN21" t="n">
         <v>219.97</v>
@@ -10693,7 +10693,7 @@
         <v>10.01</v>
       </c>
       <c r="BP21" t="n">
-        <v>2.57000000000005</v>
+        <v>0.2100000000001501</v>
       </c>
       <c r="BQ21" t="n">
         <v>1062.82</v>
@@ -10702,7 +10702,7 @@
         <v>26.47</v>
       </c>
       <c r="BS21" t="n">
-        <v>39.90999999999894</v>
+        <v>37.3499999999949</v>
       </c>
       <c r="BT21" t="n">
         <v>6085.05</v>
@@ -10711,7 +10711,7 @@
         <v>16.41</v>
       </c>
       <c r="BV21" t="n">
-        <v>573.4000000000005</v>
+        <v>410.639999999999</v>
       </c>
       <c r="BW21" t="n">
         <v>7286.06</v>
@@ -10720,7 +10720,7 @@
         <v>17.72</v>
       </c>
       <c r="BY21" t="n">
-        <v>338.0799999999999</v>
+        <v>20.56</v>
       </c>
       <c r="BZ21" t="n">
         <v>3711.87</v>
@@ -10729,7 +10729,7 @@
         <v>11.83</v>
       </c>
       <c r="CB21" t="n">
-        <v>125.2199999999999</v>
+        <v>56.49999999999989</v>
       </c>
       <c r="CC21" t="n">
         <v>1145.24</v>
@@ -10738,7 +10738,7 @@
         <v>14.08</v>
       </c>
       <c r="CE21" t="n">
-        <v>311.7200000000003</v>
+        <v>18.47000000000071</v>
       </c>
       <c r="CF21" t="n">
         <v>3360.39</v>
@@ -10747,7 +10747,7 @@
         <v>-1.91</v>
       </c>
       <c r="CH21" t="n">
-        <v>11.45000000000032</v>
+        <v>3.280000000000333</v>
       </c>
       <c r="CI21" t="n">
         <v>1143.22</v>
@@ -10756,7 +10756,7 @@
         <v>2.04</v>
       </c>
       <c r="CK21" t="n">
-        <v>431.1400000000003</v>
+        <v>389.7299999999976</v>
       </c>
       <c r="CL21" t="n">
         <v>4198.91</v>
@@ -10774,7 +10774,7 @@
         <v>12.29</v>
       </c>
       <c r="CQ21" t="n">
-        <v>120.49</v>
+        <v>13.56999999999999</v>
       </c>
       <c r="CR21" t="n">
         <v>1299.63</v>
@@ -10783,7 +10783,7 @@
         <v>13.77</v>
       </c>
       <c r="CT21" t="n">
-        <v>190.47</v>
+        <v>175.7499999999996</v>
       </c>
       <c r="CU21" t="n">
         <v>2103.45</v>
@@ -10792,7 +10792,7 @@
         <v>20.71</v>
       </c>
       <c r="CW21" t="n">
-        <v>265.5900000000001</v>
+        <v>244.3100000000013</v>
       </c>
       <c r="CX21" t="n">
         <v>2706.71</v>
@@ -10810,7 +10810,7 @@
         <v>13.72</v>
       </c>
       <c r="DC21" t="n">
-        <v>104.39</v>
+        <v>16.84999999999985</v>
       </c>
       <c r="DD21" t="n">
         <v>1111.06</v>
@@ -10828,7 +10828,7 @@
         <v>16.36</v>
       </c>
       <c r="DI21" t="n">
-        <v>76.22000000000003</v>
+        <v>5.380000000000109</v>
       </c>
       <c r="DJ21" t="n">
         <v>1019.49</v>
@@ -10837,7 +10837,7 @@
         <v>8.52</v>
       </c>
       <c r="DL21" t="n">
-        <v>15.61000000000058</v>
+        <v>14.3899999999993</v>
       </c>
       <c r="DM21" t="n">
         <v>4465.69</v>
@@ -10989,7 +10989,7 @@
         <v>21.44</v>
       </c>
       <c r="E22" t="n">
-        <v>1241.659999999999</v>
+        <v>877.3799999999958</v>
       </c>
       <c r="F22" t="n">
         <v>5774.94</v>
@@ -11012,7 +11012,7 @@
         <v>16.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.04999999999999975</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
@@ -11028,7 +11028,7 @@
         <v>13.2</v>
       </c>
       <c r="T22" t="n">
-        <v>414.8499999999999</v>
+        <v>380.3299999999995</v>
       </c>
       <c r="U22" t="n">
         <v>864.12</v>
@@ -11037,7 +11037,7 @@
         <v>14.63</v>
       </c>
       <c r="W22" t="n">
-        <v>3772.3</v>
+        <v>3434.78</v>
       </c>
       <c r="X22" t="n">
         <v>1265.46</v>
@@ -11046,7 +11046,7 @@
         <v>16.39</v>
       </c>
       <c r="Z22" t="n">
-        <v>882.96</v>
+        <v>775.52</v>
       </c>
       <c r="AA22" t="n">
         <v>524.67</v>
@@ -11055,7 +11055,7 @@
         <v>11.27</v>
       </c>
       <c r="AC22" t="n">
-        <v>533.21</v>
+        <v>531.8099999999995</v>
       </c>
       <c r="AD22" t="n">
         <v>1749.92</v>
@@ -11064,7 +11064,7 @@
         <v>15.86</v>
       </c>
       <c r="AF22" t="n">
-        <v>257.99</v>
+        <v>255.7899999999998</v>
       </c>
       <c r="AG22" t="n">
         <v>357.58</v>
@@ -11073,7 +11073,7 @@
         <v>18.83</v>
       </c>
       <c r="AI22" t="n">
-        <v>1815.949999999983</v>
+        <v>1258.469999999943</v>
       </c>
       <c r="AJ22" t="n">
         <v>78864.46000000001</v>
@@ -11082,7 +11082,7 @@
         <v>16.48</v>
       </c>
       <c r="AL22" t="n">
-        <v>2.110000000000014</v>
+        <v>1.86999999999999</v>
       </c>
       <c r="AM22" t="n">
         <v>555.41</v>
@@ -11091,7 +11091,7 @@
         <v>14.99</v>
       </c>
       <c r="AO22" t="n">
-        <v>88.41000000000031</v>
+        <v>8.370000000000552</v>
       </c>
       <c r="AP22" t="n">
         <v>2834.26</v>
@@ -11100,7 +11100,7 @@
         <v>23.88</v>
       </c>
       <c r="AR22" t="n">
-        <v>2793.479999999999</v>
+        <v>2469.539999999997</v>
       </c>
       <c r="AS22" t="n">
         <v>1958.32</v>
@@ -11109,7 +11109,7 @@
         <v>13.78</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.510000000000023</v>
+        <v>8.910000000000142</v>
       </c>
       <c r="AV22" t="n">
         <v>287.2</v>
@@ -11118,7 +11118,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="AX22" t="n">
-        <v>52.11999999999961</v>
+        <v>7.919999999999231</v>
       </c>
       <c r="AY22" t="n">
         <v>2029.19</v>
@@ -11127,7 +11127,7 @@
         <v>12.32</v>
       </c>
       <c r="BA22" t="n">
-        <v>713.5599999999999</v>
+        <v>554.5</v>
       </c>
       <c r="BB22" t="n">
         <v>581.9400000000001</v>
@@ -11136,7 +11136,7 @@
         <v>13.13</v>
       </c>
       <c r="BD22" t="n">
-        <v>5.80000000000001</v>
+        <v>0.2900000000000051</v>
       </c>
       <c r="BE22" t="n">
         <v>46.15</v>
@@ -11145,7 +11145,7 @@
         <v>-5.23</v>
       </c>
       <c r="BG22" t="n">
-        <v>175.72</v>
+        <v>174.6399999999999</v>
       </c>
       <c r="BH22" t="n">
         <v>698.0599999999999</v>
@@ -11154,7 +11154,7 @@
         <v>15.68</v>
       </c>
       <c r="BJ22" t="n">
-        <v>419.1800000000001</v>
+        <v>412.0999999999997</v>
       </c>
       <c r="BK22" t="n">
         <v>727.42</v>
@@ -11163,7 +11163,7 @@
         <v>13.05</v>
       </c>
       <c r="BM22" t="n">
-        <v>16.33999999999997</v>
+        <v>13.69999999999962</v>
       </c>
       <c r="BN22" t="n">
         <v>247.22</v>
@@ -11172,7 +11172,7 @@
         <v>11.3</v>
       </c>
       <c r="BP22" t="n">
-        <v>16.27999999999986</v>
+        <v>10.02999999999952</v>
       </c>
       <c r="BQ22" t="n">
         <v>1182.19</v>
@@ -11197,7 +11197,7 @@
         <v>20.46</v>
       </c>
       <c r="BY22" t="n">
-        <v>1073.16</v>
+        <v>355.8800000000002</v>
       </c>
       <c r="BZ22" t="n">
         <v>4129.78</v>
@@ -11213,7 +11213,7 @@
         <v>14.11</v>
       </c>
       <c r="CE22" t="n">
-        <v>112.2999999999992</v>
+        <v>75.35999999999778</v>
       </c>
       <c r="CF22" t="n">
         <v>3770.62</v>
@@ -11222,7 +11222,7 @@
         <v>0.89</v>
       </c>
       <c r="CH22" t="n">
-        <v>13.4199999999998</v>
+        <v>1.969999999999478</v>
       </c>
       <c r="CI22" t="n">
         <v>1271.34</v>
@@ -11240,7 +11240,7 @@
         <v>15.67</v>
       </c>
       <c r="CN22" t="n">
-        <v>2.240000000000041</v>
+        <v>0.5100000000000511</v>
       </c>
       <c r="CO22" t="n">
         <v>240.91</v>
@@ -11249,7 +11249,7 @@
         <v>11.8</v>
       </c>
       <c r="CQ22" t="n">
-        <v>224</v>
+        <v>76.37000000000002</v>
       </c>
       <c r="CR22" t="n">
         <v>1445.38</v>
@@ -11258,7 +11258,7 @@
         <v>14.46</v>
       </c>
       <c r="CT22" t="n">
-        <v>1740.27</v>
+        <v>1000.47</v>
       </c>
       <c r="CU22" t="n">
         <v>2347.3</v>
@@ -11267,7 +11267,7 @@
         <v>21.43</v>
       </c>
       <c r="CW22" t="n">
-        <v>1420.78</v>
+        <v>390.3399999999979</v>
       </c>
       <c r="CX22" t="n">
         <v>3044.45</v>
@@ -11276,7 +11276,7 @@
         <v>18.06</v>
       </c>
       <c r="CZ22" t="n">
-        <v>20.05000000000001</v>
+        <v>19.49000000000009</v>
       </c>
       <c r="DA22" t="n">
         <v>263.07</v>
@@ -11292,7 +11292,7 @@
         <v>20.38</v>
       </c>
       <c r="DF22" t="n">
-        <v>65.56</v>
+        <v>10.71999999999997</v>
       </c>
       <c r="DG22" t="n">
         <v>3501.04</v>
@@ -11301,7 +11301,7 @@
         <v>16.79</v>
       </c>
       <c r="DI22" t="n">
-        <v>73.21000000000006</v>
+        <v>62.44999999999985</v>
       </c>
       <c r="DJ22" t="n">
         <v>1103.13</v>
@@ -11310,7 +11310,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="DL22" t="n">
-        <v>2494.889999999999</v>
+        <v>2433.059999999996</v>
       </c>
       <c r="DM22" t="n">
         <v>4958.64</v>
@@ -11319,7 +11319,7 @@
         <v>17.21</v>
       </c>
       <c r="DO22" t="n">
-        <v>6.72999999999999</v>
+        <v>5.36999999999999</v>
       </c>
       <c r="DP22" t="n">
         <v>147.07</v>
